--- a/data/CEC EE load shapes/CEC CEDU 2020 LADWP Planning Area Commercial Floorspace Forecast w- HML.xlsx
+++ b/data/CEC EE load shapes/CEC CEDU 2020 LADWP Planning Area Commercial Floorspace Forecast w- HML.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://caenergy-my.sharepoint.com/personal/cary_garcia_energy_ca_gov/Documents/_Forecasts/_CED 2021/requests/LADWP-Consultant/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annelise_dillon/Desktop/Harbor/harboropt/data/CEC EE load shapes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{C02FFA2D-FAAE-42D5-AC82-23C54843BD2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B74FC9D5-6AC4-4656-824A-68D3BB731406}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74437936-6EA9-924C-8A15-B54A4357EE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1D92FF64-A04E-4576-8EFB-D5B7EEC2DE70}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{1D92FF64-A04E-4576-8EFB-D5B7EEC2DE70}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -478,40 +478,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BEC8B5A-57A8-4674-BF22-2D8FCA619364}">
   <dimension ref="A1:I989"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -537,7 +539,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1990</v>
       </c>
@@ -563,7 +565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1990</v>
       </c>
@@ -589,7 +591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1990</v>
       </c>
@@ -615,7 +617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1990</v>
       </c>
@@ -641,7 +643,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1990</v>
       </c>
@@ -667,7 +669,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1990</v>
       </c>
@@ -693,7 +695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1990</v>
       </c>
@@ -719,7 +721,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1990</v>
       </c>
@@ -745,7 +747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1990</v>
       </c>
@@ -771,7 +773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1990</v>
       </c>
@@ -797,7 +799,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1990</v>
       </c>
@@ -823,7 +825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1990</v>
       </c>
@@ -849,7 +851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1991</v>
       </c>
@@ -869,7 +871,7 @@
         <v>15.70121773</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1991</v>
       </c>
@@ -889,7 +891,7 @@
         <v>8.88770405</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1991</v>
       </c>
@@ -909,7 +911,7 @@
         <v>11.52212722</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1991</v>
       </c>
@@ -929,7 +931,7 @@
         <v>11.93304783</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1991</v>
       </c>
@@ -949,7 +951,7 @@
         <v>69.266518880000007</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1991</v>
       </c>
@@ -969,7 +971,7 @@
         <v>35.225986370000001</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1991</v>
       </c>
@@ -989,7 +991,7 @@
         <v>1.377570333</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1991</v>
       </c>
@@ -1009,7 +1011,7 @@
         <v>6.7955560740000003</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1991</v>
       </c>
@@ -1029,7 +1031,7 @@
         <v>33.799260619999998</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1991</v>
       </c>
@@ -1049,7 +1051,7 @@
         <v>16.639379829999999</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1991</v>
       </c>
@@ -1069,7 +1071,7 @@
         <v>11.16696044</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1991</v>
       </c>
@@ -1089,7 +1091,7 @@
         <v>35.970571700000001</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1992</v>
       </c>
@@ -1109,7 +1111,7 @@
         <v>15.7866336</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1992</v>
       </c>
@@ -1129,7 +1131,7 @@
         <v>9.0293196990000002</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1992</v>
       </c>
@@ -1149,7 +1151,7 @@
         <v>11.787868960000001</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1992</v>
       </c>
@@ -1169,7 +1171,7 @@
         <v>12.227518030000001</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1992</v>
       </c>
@@ -1189,7 +1191,7 @@
         <v>70.854805519999999</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1992</v>
       </c>
@@ -1209,7 +1211,7 @@
         <v>35.936953209999999</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1992</v>
       </c>
@@ -1229,7 +1231,7 @@
         <v>1.39683932</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1992</v>
       </c>
@@ -1249,7 +1251,7 @@
         <v>6.9531221319999998</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1992</v>
       </c>
@@ -1269,7 +1271,7 @@
         <v>34.452427290000003</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1992</v>
       </c>
@@ -1289,7 +1291,7 @@
         <v>16.786342380000001</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1992</v>
       </c>
@@ -1309,7 +1311,7 @@
         <v>11.292798810000001</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1992</v>
       </c>
@@ -1329,7 +1331,7 @@
         <v>36.804581429999999</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1993</v>
       </c>
@@ -1349,7 +1351,7 @@
         <v>15.9134653</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1993</v>
       </c>
@@ -1369,7 +1371,7 @@
         <v>9.1684888020000006</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1993</v>
       </c>
@@ -1389,7 +1391,7 @@
         <v>11.95225505</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1993</v>
       </c>
@@ -1409,7 +1411,7 @@
         <v>12.283794889999999</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1993</v>
       </c>
@@ -1429,7 +1431,7 @@
         <v>71.10381606</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1993</v>
       </c>
@@ -1449,7 +1451,7 @@
         <v>36.896739969999999</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1993</v>
       </c>
@@ -1469,7 +1471,7 @@
         <v>1.437606288</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1993</v>
       </c>
@@ -1489,7 +1491,7 @@
         <v>7.0327775020000001</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1993</v>
       </c>
@@ -1509,7 +1511,7 @@
         <v>35.028025270000001</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1993</v>
       </c>
@@ -1529,7 +1531,7 @@
         <v>16.892001029999999</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1993</v>
       </c>
@@ -1549,7 +1551,7 @@
         <v>11.40025133</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1993</v>
       </c>
@@ -1569,7 +1571,7 @@
         <v>37.195617310000003</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1994</v>
       </c>
@@ -1589,7 +1591,7 @@
         <v>15.986127120000001</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1994</v>
       </c>
@@ -1609,7 +1611,7 @@
         <v>9.2853446850000001</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1994</v>
       </c>
@@ -1629,7 +1631,7 @@
         <v>12.16546484</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1994</v>
       </c>
@@ -1649,7 +1651,7 @@
         <v>12.29585666</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1994</v>
       </c>
@@ -1669,7 +1671,7 @@
         <v>71.318543320000003</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1994</v>
       </c>
@@ -1689,7 +1691,7 @@
         <v>37.620047839999998</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1994</v>
       </c>
@@ -1709,7 +1711,7 @@
         <v>1.466518838</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1994</v>
       </c>
@@ -1729,7 +1731,7 @@
         <v>7.0867821629999996</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1994</v>
       </c>
@@ -1749,7 +1751,7 @@
         <v>35.481075160000003</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1994</v>
       </c>
@@ -1769,7 +1771,7 @@
         <v>16.96699504</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1994</v>
       </c>
@@ -1789,7 +1791,7 @@
         <v>11.48517597</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1994</v>
       </c>
@@ -1809,7 +1811,7 @@
         <v>37.327929609999998</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1995</v>
       </c>
@@ -1829,7 +1831,7 @@
         <v>16.01466237</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1995</v>
       </c>
@@ -1849,7 +1851,7 @@
         <v>9.3640165090000007</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1995</v>
       </c>
@@ -1869,7 +1871,7 @@
         <v>12.258895450000001</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1995</v>
       </c>
@@ -1889,7 +1891,7 @@
         <v>12.31350022</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1995</v>
       </c>
@@ -1909,7 +1911,7 @@
         <v>71.508188050000001</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1995</v>
       </c>
@@ -1929,7 +1931,7 @@
         <v>37.933148670000001</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1995</v>
       </c>
@@ -1949,7 +1951,7 @@
         <v>1.502359453</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1995</v>
       </c>
@@ -1969,7 +1971,7 @@
         <v>7.1295106669999999</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1995</v>
       </c>
@@ -1989,7 +1991,7 @@
         <v>35.783856530000001</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1995</v>
       </c>
@@ -2009,7 +2011,7 @@
         <v>17.10286442</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1995</v>
       </c>
@@ -2029,7 +2031,7 @@
         <v>11.55648834</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1995</v>
       </c>
@@ -2049,7 +2051,7 @@
         <v>37.40180058</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1996</v>
       </c>
@@ -2069,7 +2071,7 @@
         <v>16.068873570000001</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1996</v>
       </c>
@@ -2089,7 +2091,7 @@
         <v>9.4356484940000005</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1996</v>
       </c>
@@ -2109,7 +2111,7 @@
         <v>12.30084218</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1996</v>
       </c>
@@ -2129,7 +2131,7 @@
         <v>12.33405177</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1996</v>
       </c>
@@ -2149,7 +2151,7 @@
         <v>71.652131710000006</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1996</v>
       </c>
@@ -2169,7 +2171,7 @@
         <v>38.281806369999998</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1996</v>
       </c>
@@ -2189,7 +2191,7 @@
         <v>1.5135371609999999</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1996</v>
       </c>
@@ -2209,7 +2211,7 @@
         <v>7.1971180080000003</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1996</v>
       </c>
@@ -2229,7 +2231,7 @@
         <v>36.072634549999997</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1996</v>
       </c>
@@ -2249,7 +2251,7 @@
         <v>17.187377569999999</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1996</v>
       </c>
@@ -2269,7 +2271,7 @@
         <v>11.654746169999999</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1996</v>
       </c>
@@ -2289,7 +2291,7 @@
         <v>37.553473099999998</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1997</v>
       </c>
@@ -2309,7 +2311,7 @@
         <v>16.11615389</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1997</v>
       </c>
@@ -2329,7 +2331,7 @@
         <v>9.5278342919999996</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1997</v>
       </c>
@@ -2349,7 +2351,7 @@
         <v>12.38010019</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1997</v>
       </c>
@@ -2369,7 +2371,7 @@
         <v>12.338977460000001</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1997</v>
       </c>
@@ -2389,7 +2391,7 @@
         <v>71.730388719999993</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1997</v>
       </c>
@@ -2409,7 +2411,7 @@
         <v>38.701562269999997</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1997</v>
       </c>
@@ -2429,7 +2431,7 @@
         <v>1.516485979</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1997</v>
       </c>
@@ -2449,7 +2451,7 @@
         <v>7.2574509689999998</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1997</v>
       </c>
@@ -2469,7 +2471,7 @@
         <v>36.443975350000002</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>1997</v>
       </c>
@@ -2489,7 +2491,7 @@
         <v>17.252009040000001</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1997</v>
       </c>
@@ -2509,7 +2511,7 @@
         <v>11.71059333</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1997</v>
       </c>
@@ -2529,7 +2531,7 @@
         <v>37.747438070000001</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>1998</v>
       </c>
@@ -2549,7 +2551,7 @@
         <v>16.175711150000001</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>1998</v>
       </c>
@@ -2569,7 +2571,7 @@
         <v>9.6241903910000008</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>1998</v>
       </c>
@@ -2589,7 +2591,7 @@
         <v>12.481608530000001</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>1998</v>
       </c>
@@ -2609,7 +2611,7 @@
         <v>12.40284761</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>1998</v>
       </c>
@@ -2629,7 +2631,7 @@
         <v>71.899175200000002</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>1998</v>
       </c>
@@ -2649,7 +2651,7 @@
         <v>39.185911330000003</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>1998</v>
       </c>
@@ -2669,7 +2671,7 @@
         <v>1.5279647970000001</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>1998</v>
       </c>
@@ -2689,7 +2691,7 @@
         <v>7.3323970029999996</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>1998</v>
       </c>
@@ -2709,7 +2711,7 @@
         <v>36.831984570000003</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>1998</v>
       </c>
@@ -2729,7 +2731,7 @@
         <v>17.31380991</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>1998</v>
       </c>
@@ -2749,7 +2751,7 @@
         <v>11.783417</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>1998</v>
       </c>
@@ -2769,7 +2771,7 @@
         <v>37.949445660000002</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>1999</v>
       </c>
@@ -2789,7 +2791,7 @@
         <v>16.24180883</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>1999</v>
       </c>
@@ -2809,7 +2811,7 @@
         <v>9.711783616</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>1999</v>
       </c>
@@ -2829,7 +2831,7 @@
         <v>12.56639184</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>1999</v>
       </c>
@@ -2849,7 +2851,7 @@
         <v>12.53431769</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>1999</v>
       </c>
@@ -2869,7 +2871,7 @@
         <v>72.218888620000001</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>1999</v>
       </c>
@@ -2889,7 +2891,7 @@
         <v>39.54319529</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>1999</v>
       </c>
@@ -2909,7 +2911,7 @@
         <v>1.53914306</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>1999</v>
       </c>
@@ -2929,7 +2931,7 @@
         <v>7.4040643050000003</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1999</v>
       </c>
@@ -2949,7 +2951,7 @@
         <v>37.196810929999998</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>1999</v>
       </c>
@@ -2969,7 +2971,7 @@
         <v>17.446472289999999</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>1999</v>
       </c>
@@ -2989,7 +2991,7 @@
         <v>11.86400722</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>1999</v>
       </c>
@@ -3009,7 +3011,7 @@
         <v>38.211110159999997</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>2000</v>
       </c>
@@ -3029,7 +3031,7 @@
         <v>16.29349084</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>2000</v>
       </c>
@@ -3049,7 +3051,7 @@
         <v>9.8407999460000006</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>2000</v>
       </c>
@@ -3069,7 +3071,7 @@
         <v>12.65969243</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>2000</v>
       </c>
@@ -3089,7 +3091,7 @@
         <v>12.652116060000001</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>2000</v>
       </c>
@@ -3109,7 +3111,7 @@
         <v>72.833160849999999</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>2000</v>
       </c>
@@ -3129,7 +3131,7 @@
         <v>40.260110500000003</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>2000</v>
       </c>
@@ -3149,7 +3151,7 @@
         <v>1.538848786</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>2000</v>
       </c>
@@ -3169,7 +3171,7 @@
         <v>7.53059996</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>2000</v>
       </c>
@@ -3189,7 +3191,7 @@
         <v>37.777565389999999</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>2000</v>
       </c>
@@ -3209,7 +3211,7 @@
         <v>17.5311606</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>2000</v>
       </c>
@@ -3229,7 +3231,7 @@
         <v>11.95076156</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>2000</v>
       </c>
@@ -3249,7 +3251,7 @@
         <v>38.878249490000002</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>2001</v>
       </c>
@@ -3269,7 +3271,7 @@
         <v>16.420690759999999</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>2001</v>
       </c>
@@ -3289,7 +3291,7 @@
         <v>9.9573032030000004</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>2001</v>
       </c>
@@ -3309,7 +3311,7 @@
         <v>12.7987854</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>2001</v>
       </c>
@@ -3329,7 +3331,7 @@
         <v>12.72837711</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>2001</v>
       </c>
@@ -3349,7 +3351,7 @@
         <v>73.323287399999998</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>2001</v>
       </c>
@@ -3369,7 +3371,7 @@
         <v>40.837892070000002</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>2001</v>
       </c>
@@ -3389,7 +3391,7 @@
         <v>1.57847899</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>2001</v>
       </c>
@@ -3409,7 +3411,7 @@
         <v>7.6586477879999997</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>2001</v>
       </c>
@@ -3429,7 +3431,7 @@
         <v>38.310214330000001</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>2001</v>
       </c>
@@ -3449,7 +3451,7 @@
         <v>17.662216340000001</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>2001</v>
       </c>
@@ -3469,7 +3471,7 @@
         <v>12.04749045</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>2001</v>
       </c>
@@ -3489,7 +3491,7 @@
         <v>39.53359511</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>2002</v>
       </c>
@@ -3509,7 +3511,7 @@
         <v>16.522970440000002</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>2002</v>
       </c>
@@ -3529,7 +3531,7 @@
         <v>10.075046110000001</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>2002</v>
       </c>
@@ -3549,7 +3551,7 @@
         <v>12.998079130000001</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>2002</v>
       </c>
@@ -3569,7 +3571,7 @@
         <v>12.76517814</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>2002</v>
       </c>
@@ -3589,7 +3591,7 @@
         <v>73.723457699999997</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>2002</v>
       </c>
@@ -3609,7 +3611,7 @@
         <v>41.377270099999997</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>2002</v>
       </c>
@@ -3629,7 +3631,7 @@
         <v>1.578131789</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>2002</v>
       </c>
@@ -3649,7 +3651,7 @@
         <v>7.8203341640000001</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>2002</v>
       </c>
@@ -3669,7 +3671,7 @@
         <v>38.870055010000002</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>2002</v>
       </c>
@@ -3689,7 +3691,7 @@
         <v>17.806854430000001</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>2002</v>
       </c>
@@ -3709,7 +3711,7 @@
         <v>12.1520093</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>2002</v>
       </c>
@@ -3729,7 +3731,7 @@
         <v>40.335091310000003</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>2003</v>
       </c>
@@ -3749,7 +3751,7 @@
         <v>16.623483830000001</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>2003</v>
       </c>
@@ -3769,7 +3771,7 @@
         <v>10.217422839999999</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>2003</v>
       </c>
@@ -3789,7 +3791,7 @@
         <v>13.271303959999999</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>2003</v>
       </c>
@@ -3809,7 +3811,7 @@
         <v>12.84080576</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>2003</v>
       </c>
@@ -3829,7 +3831,7 @@
         <v>74.337548459999994</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>2003</v>
       </c>
@@ -3849,7 +3851,7 @@
         <v>41.849027280000001</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>2003</v>
       </c>
@@ -3869,7 +3871,7 @@
         <v>1.592820541</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>2003</v>
       </c>
@@ -3889,7 +3891,7 @@
         <v>7.946347973</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>2003</v>
       </c>
@@ -3909,7 +3911,7 @@
         <v>39.490941730000003</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>2003</v>
       </c>
@@ -3929,7 +3931,7 @@
         <v>17.94357321</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>2003</v>
       </c>
@@ -3949,7 +3951,7 @@
         <v>12.24214768</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>2003</v>
       </c>
@@ -3969,7 +3971,7 @@
         <v>40.942218009999998</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>2004</v>
       </c>
@@ -3989,7 +3991,7 @@
         <v>16.667093430000001</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>2004</v>
       </c>
@@ -4009,7 +4011,7 @@
         <v>10.28214099</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>2004</v>
       </c>
@@ -4029,7 +4031,7 @@
         <v>13.5353098</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>2004</v>
       </c>
@@ -4049,7 +4051,7 @@
         <v>12.844290750000001</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>2004</v>
       </c>
@@ -4069,7 +4071,7 @@
         <v>74.651803200000003</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>2004</v>
       </c>
@@ -4089,7 +4091,7 @@
         <v>42.335900240000001</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>2004</v>
       </c>
@@ -4109,7 +4111,7 @@
         <v>1.6288878200000001</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>2004</v>
       </c>
@@ -4129,7 +4131,7 @@
         <v>8.0514067770000004</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>2004</v>
       </c>
@@ -4149,7 +4151,7 @@
         <v>39.81408424</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>2004</v>
       </c>
@@ -4169,7 +4171,7 @@
         <v>18.147419370000001</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>2004</v>
       </c>
@@ -4189,7 +4191,7 @@
         <v>12.320103659999999</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>2004</v>
       </c>
@@ -4209,7 +4211,7 @@
         <v>41.481374010000003</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>2005</v>
       </c>
@@ -4229,7 +4231,7 @@
         <v>16.728065699999998</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>2005</v>
       </c>
@@ -4249,7 +4251,7 @@
         <v>10.36305383</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>2005</v>
       </c>
@@ -4269,7 +4271,7 @@
         <v>13.735048280000001</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>2005</v>
       </c>
@@ -4289,7 +4291,7 @@
         <v>12.84953164</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>2005</v>
       </c>
@@ -4309,7 +4311,7 @@
         <v>74.833141580000003</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>2005</v>
       </c>
@@ -4329,7 +4331,7 @@
         <v>42.643783380000002</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>2005</v>
       </c>
@@ -4349,7 +4351,7 @@
         <v>1.6346419569999999</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>2005</v>
       </c>
@@ -4369,7 +4371,7 @@
         <v>8.1298208279999997</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>2005</v>
       </c>
@@ -4389,7 +4391,7 @@
         <v>40.181303069999998</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>2005</v>
       </c>
@@ -4409,7 +4411,7 @@
         <v>18.51946388</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>2005</v>
       </c>
@@ -4429,7 +4431,7 @@
         <v>12.38730296</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>2005</v>
       </c>
@@ -4449,7 +4451,7 @@
         <v>41.918243349999997</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>2006</v>
       </c>
@@ -4469,7 +4471,7 @@
         <v>16.813046839999998</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>2006</v>
       </c>
@@ -4489,7 +4491,7 @@
         <v>10.42831299</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>2006</v>
       </c>
@@ -4509,7 +4511,7 @@
         <v>14.117556110000001</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>2006</v>
       </c>
@@ -4529,7 +4531,7 @@
         <v>12.89391548</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>2006</v>
       </c>
@@ -4549,7 +4551,7 @@
         <v>75.083874059999999</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>2006</v>
       </c>
@@ -4569,7 +4571,7 @@
         <v>43.0002894</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>2006</v>
       </c>
@@ -4589,7 +4591,7 @@
         <v>1.6409481159999999</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>2006</v>
       </c>
@@ -4609,7 +4611,7 @@
         <v>8.2116159940000006</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>2006</v>
       </c>
@@ -4629,7 +4631,7 @@
         <v>40.486229940000001</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>2006</v>
       </c>
@@ -4649,7 +4651,7 @@
         <v>18.854559380000001</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>2006</v>
       </c>
@@ -4669,7 +4671,7 @@
         <v>12.451381919999999</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>2006</v>
       </c>
@@ -4689,7 +4691,7 @@
         <v>42.326701100000001</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>2007</v>
       </c>
@@ -4709,7 +4711,7 @@
         <v>16.899158499999999</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>2007</v>
       </c>
@@ -4729,7 +4731,7 @@
         <v>10.523250880000001</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>2007</v>
       </c>
@@ -4749,7 +4751,7 @@
         <v>14.177224819999999</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>2007</v>
       </c>
@@ -4769,7 +4771,7 @@
         <v>12.911080030000001</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>2007</v>
       </c>
@@ -4789,7 +4791,7 @@
         <v>75.359071240000006</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>2007</v>
       </c>
@@ -4809,7 +4811,7 @@
         <v>43.386720009999998</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>2007</v>
       </c>
@@ -4829,7 +4831,7 @@
         <v>1.64171019</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>2007</v>
       </c>
@@ -4849,7 +4851,7 @@
         <v>8.278871037</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>2007</v>
       </c>
@@ -4869,7 +4871,7 @@
         <v>40.890142959999999</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>2007</v>
       </c>
@@ -4889,7 +4891,7 @@
         <v>19.0810478</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>2007</v>
       </c>
@@ -4909,7 +4911,7 @@
         <v>12.510557220000001</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>2007</v>
       </c>
@@ -4929,7 +4931,7 @@
         <v>42.665438109999997</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>2008</v>
       </c>
@@ -4949,7 +4951,7 @@
         <v>17.015794920000001</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>2008</v>
       </c>
@@ -4969,7 +4971,7 @@
         <v>10.61115657</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>2008</v>
       </c>
@@ -4989,7 +4991,7 @@
         <v>14.4387597</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>2008</v>
       </c>
@@ -5009,7 +5011,7 @@
         <v>13.09429929</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>2008</v>
       </c>
@@ -5029,7 +5031,7 @@
         <v>75.565036140000004</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>2008</v>
       </c>
@@ -5049,7 +5051,7 @@
         <v>43.767823700000001</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>2008</v>
       </c>
@@ -5069,7 +5071,7 @@
         <v>1.641004516</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>2008</v>
       </c>
@@ -5089,7 +5091,7 @@
         <v>8.3228183300000005</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>2008</v>
       </c>
@@ -5109,7 +5111,7 @@
         <v>41.239969610000003</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>2008</v>
       </c>
@@ -5129,7 +5131,7 @@
         <v>19.327585890000002</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>2008</v>
       </c>
@@ -5149,7 +5151,7 @@
         <v>12.56503799</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>2008</v>
       </c>
@@ -5169,7 +5171,7 @@
         <v>42.822661259999997</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>2009</v>
       </c>
@@ -5189,7 +5191,7 @@
         <v>17.174067529999999</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>2009</v>
       </c>
@@ -5209,7 +5211,7 @@
         <v>10.68430261</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>2009</v>
       </c>
@@ -5229,7 +5231,7 @@
         <v>14.5927959</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>2009</v>
       </c>
@@ -5249,7 +5251,7 @@
         <v>13.27875893</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>2009</v>
       </c>
@@ -5269,7 +5271,7 @@
         <v>75.879300959999995</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>2009</v>
       </c>
@@ -5289,7 +5291,7 @@
         <v>44.122612519999997</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>2009</v>
       </c>
@@ -5309,7 +5311,7 @@
         <v>1.6405104580000001</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>2009</v>
       </c>
@@ -5329,7 +5331,7 @@
         <v>8.3535222440000005</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>2009</v>
       </c>
@@ -5349,7 +5351,7 @@
         <v>41.527735720000003</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>2009</v>
       </c>
@@ -5369,7 +5371,7 @@
         <v>19.522599509999999</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>2009</v>
       </c>
@@ -5389,7 +5391,7 @@
         <v>12.601841520000001</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>2009</v>
       </c>
@@ -5409,7 +5411,7 @@
         <v>42.931591349999998</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>2010</v>
       </c>
@@ -5429,7 +5431,7 @@
         <v>17.290823190000001</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>2010</v>
       </c>
@@ -5449,7 +5451,7 @@
         <v>10.72701724</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>2010</v>
       </c>
@@ -5469,7 +5471,7 @@
         <v>14.701658800000001</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>2010</v>
       </c>
@@ -5489,7 +5491,7 @@
         <v>13.27317601</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>2010</v>
       </c>
@@ -5509,7 +5511,7 @@
         <v>75.929892210000006</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>2010</v>
       </c>
@@ -5529,7 +5531,7 @@
         <v>44.398517230000003</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>2010</v>
       </c>
@@ -5549,7 +5551,7 @@
         <v>1.643961668</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>2010</v>
       </c>
@@ -5569,7 +5571,7 @@
         <v>8.3786179680000004</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>2010</v>
       </c>
@@ -5589,7 +5591,7 @@
         <v>41.706773920000003</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>2010</v>
       </c>
@@ -5609,7 +5611,7 @@
         <v>19.813417040000001</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>2010</v>
       </c>
@@ -5629,7 +5631,7 @@
         <v>12.62590981</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>2010</v>
       </c>
@@ -5649,7 +5651,7 @@
         <v>43.065260510000002</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>2011</v>
       </c>
@@ -5669,7 +5671,7 @@
         <v>17.33865905</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>2011</v>
       </c>
@@ -5689,7 +5691,7 @@
         <v>10.742325839999999</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>2011</v>
       </c>
@@ -5709,7 +5711,7 @@
         <v>14.719299729999999</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>2011</v>
       </c>
@@ -5729,7 +5731,7 @@
         <v>13.26496695</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>2011</v>
       </c>
@@ -5749,7 +5751,7 @@
         <v>75.906760570000003</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>2011</v>
       </c>
@@ -5769,7 +5771,7 @@
         <v>44.618754269999997</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>2011</v>
       </c>
@@ -5789,7 +5791,7 @@
         <v>1.643020041</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>2011</v>
       </c>
@@ -5809,7 +5811,7 @@
         <v>8.3847940059999999</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>2011</v>
       </c>
@@ -5829,7 +5831,7 @@
         <v>41.764994860000002</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>2011</v>
       </c>
@@ -5849,7 +5851,7 @@
         <v>20.109712269999999</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>2011</v>
       </c>
@@ -5869,7 +5871,7 @@
         <v>12.64190466</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>2011</v>
       </c>
@@ -5889,7 +5891,7 @@
         <v>43.073171389999999</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>2012</v>
       </c>
@@ -5909,7 +5911,7 @@
         <v>17.442463620000002</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>2012</v>
       </c>
@@ -5929,7 +5931,7 @@
         <v>10.757405540000001</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>2012</v>
       </c>
@@ -5949,7 +5951,7 @@
         <v>14.86222871</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>2012</v>
       </c>
@@ -5969,7 +5971,7 @@
         <v>13.25912211</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>2012</v>
       </c>
@@ -5989,7 +5991,7 @@
         <v>75.870952209999999</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>2012</v>
       </c>
@@ -6009,7 +6011,7 @@
         <v>44.810321549999998</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>2012</v>
       </c>
@@ -6029,7 +6031,7 @@
         <v>1.6419854780000001</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>2012</v>
       </c>
@@ -6049,7 +6051,7 @@
         <v>8.3887161359999993</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>2012</v>
       </c>
@@ -6069,7 +6071,7 @@
         <v>41.815215520000002</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>2012</v>
       </c>
@@ -6089,7 +6091,7 @@
         <v>20.348452630000001</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>2012</v>
       </c>
@@ -6109,7 +6111,7 @@
         <v>12.65032508</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>2012</v>
       </c>
@@ -6129,7 +6131,7 @@
         <v>43.03483456</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>2013</v>
       </c>
@@ -6149,7 +6151,7 @@
         <v>17.483443690000001</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>2013</v>
       </c>
@@ -6169,7 +6171,7 @@
         <v>10.76336414</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>2013</v>
       </c>
@@ -6189,7 +6191,7 @@
         <v>14.94032794</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>2013</v>
       </c>
@@ -6209,7 +6211,7 @@
         <v>13.2740334</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>2013</v>
       </c>
@@ -6229,7 +6231,7 @@
         <v>75.886659089999995</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>2013</v>
       </c>
@@ -6249,7 +6251,7 @@
         <v>44.82535755</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>2013</v>
       </c>
@@ -6269,7 +6271,7 @@
         <v>1.640858683</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>2013</v>
       </c>
@@ -6289,7 +6291,7 @@
         <v>8.3941991569999992</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>2013</v>
       </c>
@@ -6309,7 +6311,7 @@
         <v>41.838583700000001</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>2013</v>
       </c>
@@ -6329,7 +6331,7 @@
         <v>20.42901664</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>2013</v>
       </c>
@@ -6349,7 +6351,7 @@
         <v>12.652489490000001</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>2013</v>
       </c>
@@ -6369,7 +6371,7 @@
         <v>43.040996659999998</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>2014</v>
       </c>
@@ -6389,7 +6391,7 @@
         <v>17.507970409999999</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>2014</v>
       </c>
@@ -6409,7 +6411,7 @@
         <v>10.784650040000001</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>2014</v>
       </c>
@@ -6429,7 +6431,7 @@
         <v>15.02116243</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>2014</v>
       </c>
@@ -6449,7 +6451,7 @@
         <v>13.338338</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>2014</v>
       </c>
@@ -6469,7 +6471,7 @@
         <v>75.844884899999997</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>2014</v>
       </c>
@@ -6489,7 +6491,7 @@
         <v>44.900819220000002</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>2014</v>
       </c>
@@ -6509,7 +6511,7 @@
         <v>1.6396282310000001</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>2014</v>
       </c>
@@ -6529,7 +6531,7 @@
         <v>8.401142149</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>2014</v>
       </c>
@@ -6549,7 +6551,7 @@
         <v>41.921767240000001</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>2014</v>
       </c>
@@ -6569,7 +6571,7 @@
         <v>20.49328659</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>2014</v>
       </c>
@@ -6589,7 +6591,7 @@
         <v>12.661163999999999</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>2014</v>
       </c>
@@ -6609,7 +6611,7 @@
         <v>43.06736377</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>2015</v>
       </c>
@@ -6629,7 +6631,7 @@
         <v>17.59175514</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>2015</v>
       </c>
@@ -6649,7 +6651,7 @@
         <v>10.80144052</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>2015</v>
       </c>
@@ -6669,7 +6671,7 @@
         <v>15.03831791</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>2015</v>
       </c>
@@ -6689,7 +6691,7 @@
         <v>13.48353459</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>2015</v>
       </c>
@@ -6709,7 +6711,7 @@
         <v>75.854920010000001</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>2015</v>
       </c>
@@ -6729,7 +6731,7 @@
         <v>45.051477409999997</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>2015</v>
       </c>
@@ -6749,7 +6751,7 @@
         <v>1.639783765</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>2015</v>
       </c>
@@ -6769,7 +6771,7 @@
         <v>8.4164550620000007</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>2015</v>
       </c>
@@ -6789,7 +6791,7 @@
         <v>41.990760350000002</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>2015</v>
       </c>
@@ -6809,7 +6811,7 @@
         <v>20.574263460000001</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>2015</v>
       </c>
@@ -6829,7 +6831,7 @@
         <v>12.66620923</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>2015</v>
       </c>
@@ -6849,7 +6851,7 @@
         <v>43.109482669999998</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>2016</v>
       </c>
@@ -6869,7 +6871,7 @@
         <v>17.642770769999998</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>2016</v>
       </c>
@@ -6889,7 +6891,7 @@
         <v>10.81107579</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>2016</v>
       </c>
@@ -6909,7 +6911,7 @@
         <v>15.06473437</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>2016</v>
       </c>
@@ -6929,7 +6931,7 @@
         <v>13.65758705</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>2016</v>
       </c>
@@ -6949,7 +6951,7 @@
         <v>75.901497489999997</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>2016</v>
       </c>
@@ -6969,7 +6971,7 @@
         <v>45.088986380000001</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>2016</v>
       </c>
@@ -6989,7 +6991,7 @@
         <v>1.639131629</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>2016</v>
       </c>
@@ -7009,7 +7011,7 @@
         <v>8.4276793199999993</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>2016</v>
       </c>
@@ -7029,7 +7031,7 @@
         <v>42.031442480000003</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>2016</v>
       </c>
@@ -7049,7 +7051,7 @@
         <v>20.628874580000002</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>2016</v>
       </c>
@@ -7069,7 +7071,7 @@
         <v>12.66772469</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>2016</v>
       </c>
@@ -7089,7 +7091,7 @@
         <v>43.139664510000003</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>2017</v>
       </c>
@@ -7109,7 +7111,7 @@
         <v>17.66965029</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>2017</v>
       </c>
@@ -7129,7 +7131,7 @@
         <v>10.842636369999999</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>2017</v>
       </c>
@@ -7149,7 +7151,7 @@
         <v>15.11314209</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>2017</v>
       </c>
@@ -7169,7 +7171,7 @@
         <v>13.709608469999999</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>2017</v>
       </c>
@@ -7189,7 +7191,7 @@
         <v>75.85862109</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>2017</v>
       </c>
@@ -7209,7 +7211,7 @@
         <v>45.108875449999999</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>2017</v>
       </c>
@@ -7229,7 +7231,7 @@
         <v>1.637528197</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>2017</v>
       </c>
@@ -7249,7 +7251,7 @@
         <v>8.4506762139999996</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>2017</v>
       </c>
@@ -7269,7 +7271,7 @@
         <v>42.159784049999999</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>2017</v>
       </c>
@@ -7289,7 +7291,7 @@
         <v>20.690567359999999</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>2017</v>
       </c>
@@ -7309,7 +7311,7 @@
         <v>12.672014190000001</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>2017</v>
       </c>
@@ -7329,7 +7331,7 @@
         <v>43.21229391</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>2018</v>
       </c>
@@ -7349,7 +7351,7 @@
         <v>17.738912450000001</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>2018</v>
       </c>
@@ -7369,7 +7371,7 @@
         <v>10.86605686</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>2018</v>
       </c>
@@ -7389,7 +7391,7 @@
         <v>15.15150064</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>2018</v>
       </c>
@@ -7409,7 +7411,7 @@
         <v>13.843827729999999</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>2018</v>
       </c>
@@ -7429,7 +7431,7 @@
         <v>75.935278729999993</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>2018</v>
       </c>
@@ -7449,7 +7451,7 @@
         <v>45.227138439999997</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>2018</v>
       </c>
@@ -7469,7 +7471,7 @@
         <v>1.6357811550000001</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>2018</v>
       </c>
@@ -7489,7 +7491,7 @@
         <v>8.5261344900000005</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>2018</v>
       </c>
@@ -7509,7 +7511,7 @@
         <v>42.264785869999997</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>2018</v>
       </c>
@@ -7529,7 +7531,7 @@
         <v>20.756285850000001</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>2018</v>
       </c>
@@ -7549,7 +7551,7 @@
         <v>12.68972926</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>2018</v>
       </c>
@@ -7569,7 +7571,7 @@
         <v>43.328674040000003</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>2019</v>
       </c>
@@ -7589,7 +7591,7 @@
         <v>17.784283729999999</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>2019</v>
       </c>
@@ -7609,7 +7611,7 @@
         <v>10.921317549999999</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>2019</v>
       </c>
@@ -7629,7 +7631,7 @@
         <v>15.238766650000001</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>2019</v>
       </c>
@@ -7649,7 +7651,7 @@
         <v>13.9380924</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>2019</v>
       </c>
@@ -7669,7 +7671,7 @@
         <v>75.969075009999997</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>2019</v>
       </c>
@@ -7689,7 +7691,7 @@
         <v>45.365713810000003</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>2019</v>
       </c>
@@ -7709,7 +7711,7 @@
         <v>1.6369616950000001</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>2019</v>
       </c>
@@ -7729,7 +7731,7 @@
         <v>8.6257398490000003</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>2019</v>
       </c>
@@ -7749,7 +7751,7 @@
         <v>42.499424689999998</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>2019</v>
       </c>
@@ -7769,7 +7771,7 @@
         <v>20.845580210000001</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>2019</v>
       </c>
@@ -7789,7 +7791,7 @@
         <v>12.71177205</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>2019</v>
       </c>
@@ -7809,7 +7811,7 @@
         <v>43.518511689999997</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>2020</v>
       </c>
@@ -7829,7 +7831,7 @@
         <v>17.812359709999999</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>2020</v>
       </c>
@@ -7849,7 +7851,7 @@
         <v>10.42801631</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>2020</v>
       </c>
@@ -7869,7 +7871,7 @@
         <v>14.560208510000001</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>2020</v>
       </c>
@@ -7889,7 +7891,7 @@
         <v>14.073679930000001</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>2020</v>
       </c>
@@ -7909,7 +7911,7 @@
         <v>72.202742009999994</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>2020</v>
       </c>
@@ -7929,7 +7931,7 @@
         <v>43.22947808</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>2020</v>
       </c>
@@ -7949,7 +7951,7 @@
         <v>1.636650446</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>2020</v>
       </c>
@@ -7969,7 +7971,7 @@
         <v>8.2901833909999993</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>2020</v>
       </c>
@@ -7989,7 +7991,7 @@
         <v>40.598597839999996</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>2020</v>
       </c>
@@ -8009,7 +8011,7 @@
         <v>20.921493210000001</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>2020</v>
       </c>
@@ -8029,7 +8031,7 @@
         <v>12.09716047</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>2020</v>
       </c>
@@ -8049,7 +8051,7 @@
         <v>41.523722030000002</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>2021</v>
       </c>
@@ -8069,7 +8071,7 @@
         <v>17.852195699999999</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>2021</v>
       </c>
@@ -8089,7 +8091,7 @@
         <v>10.48104929</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>2021</v>
       </c>
@@ -8109,7 +8111,7 @@
         <v>14.64406893</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>2021</v>
       </c>
@@ -8129,7 +8131,7 @@
         <v>14.077424649999999</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>2021</v>
       </c>
@@ -8149,7 +8151,7 @@
         <v>72.234877049999994</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>2021</v>
       </c>
@@ -8169,7 +8171,7 @@
         <v>43.361932639999999</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>2021</v>
       </c>
@@ -8189,7 +8191,7 @@
         <v>1.6417755570000001</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>2021</v>
       </c>
@@ -8209,7 +8211,7 @@
         <v>8.387032284</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>2021</v>
       </c>
@@ -8229,7 +8231,7 @@
         <v>40.823986599999998</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>2021</v>
       </c>
@@ -8249,7 +8251,7 @@
         <v>20.97417059</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>2021</v>
       </c>
@@ -8269,7 +8271,7 @@
         <v>12.118173929999999</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>2021</v>
       </c>
@@ -8289,7 +8291,7 @@
         <v>41.705651570000001</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>2022</v>
       </c>
@@ -8309,7 +8311,7 @@
         <v>17.909035209999999</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>2022</v>
       </c>
@@ -8329,7 +8331,7 @@
         <v>10.53435198</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>2022</v>
       </c>
@@ -8349,7 +8351,7 @@
         <v>14.72841236</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>2022</v>
       </c>
@@ -8369,7 +8371,7 @@
         <v>13.520369110000001</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>2022</v>
       </c>
@@ -8389,7 +8391,7 @@
         <v>72.267026400000006</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>2022</v>
       </c>
@@ -8409,7 +8411,7 @@
         <v>43.494793039999998</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>2022</v>
       </c>
@@ -8429,7 +8431,7 @@
         <v>1.643163645</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>2022</v>
       </c>
@@ -8449,7 +8451,7 @@
         <v>8.4850126009999993</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>2022</v>
       </c>
@@ -8469,7 +8471,7 @@
         <v>41.050626629999996</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>2022</v>
       </c>
@@ -8489,7 +8491,7 @@
         <v>21.038579380000002</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>2022</v>
       </c>
@@ -8509,7 +8511,7 @@
         <v>12.139223899999999</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>2022</v>
       </c>
@@ -8529,7 +8531,7 @@
         <v>41.888378209999999</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>2023</v>
       </c>
@@ -8549,7 +8551,7 @@
         <v>17.98565163</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>2023</v>
       </c>
@@ -8569,7 +8571,7 @@
         <v>10.587925739999999</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>2023</v>
       </c>
@@ -8589,7 +8591,7 @@
         <v>14.81324156</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>2023</v>
       </c>
@@ -8609,7 +8611,7 @@
         <v>13.51734179</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>2023</v>
       </c>
@@ -8629,7 +8631,7 @@
         <v>72.299190060000001</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>2023</v>
       </c>
@@ -8649,7 +8651,7 @@
         <v>43.628060519999998</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>2023</v>
       </c>
@@ -8669,7 +8671,7 @@
         <v>1.637506728</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>2023</v>
       </c>
@@ -8689,7 +8691,7 @@
         <v>8.5841375590000002</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>2023</v>
       </c>
@@ -8709,7 +8711,7 @@
         <v>41.278524879999999</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>2023</v>
       </c>
@@ -8729,7 +8731,7 @@
         <v>21.139974500000001</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>2023</v>
       </c>
@@ -8749,7 +8751,7 @@
         <v>12.160310429999999</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>2023</v>
       </c>
@@ -8769,7 +8771,7 @@
         <v>42.071905440000002</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>2024</v>
       </c>
@@ -8789,7 +8791,7 @@
         <v>18.00007665</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>2024</v>
       </c>
@@ -8809,7 +8811,7 @@
         <v>10.64177196</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>2024</v>
       </c>
@@ -8829,7 +8831,7 @@
         <v>14.898559349999999</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>2024</v>
       </c>
@@ -8849,7 +8851,7 @@
         <v>13.6343345</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>2024</v>
       </c>
@@ -8869,7 +8871,7 @@
         <v>72.331368029999993</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>2024</v>
       </c>
@@ -8889,7 +8891,7 @@
         <v>43.761736329999998</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>2024</v>
       </c>
@@ -8909,7 +8911,7 @@
         <v>1.6297545280000001</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>2024</v>
       </c>
@@ -8929,7 +8931,7 @@
         <v>8.6844205300000006</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>2024</v>
       </c>
@@ -8949,7 +8951,7 @@
         <v>41.507688340000001</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>2024</v>
       </c>
@@ -8969,7 +8971,7 @@
         <v>21.21035371</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>2024</v>
       </c>
@@ -8989,7 +8991,7 @@
         <v>12.181433589999999</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>2024</v>
       </c>
@@ -9009,7 +9011,7 @@
         <v>42.25623676</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>2025</v>
       </c>
@@ -9029,7 +9031,7 @@
         <v>18.031564370000002</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>2025</v>
       </c>
@@ -9049,7 +9051,7 @@
         <v>10.69589201</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>2025</v>
       </c>
@@ -9069,7 +9071,7 @@
         <v>14.98436852</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>2025</v>
       </c>
@@ -9089,7 +9091,7 @@
         <v>13.709583540000001</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>2025</v>
       </c>
@@ -9109,7 +9111,7 @@
         <v>72.363560320000005</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>2025</v>
       </c>
@@ -9129,7 +9131,7 @@
         <v>43.895821720000001</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>2025</v>
       </c>
@@ -9149,7 +9151,7 @@
         <v>1.624917846</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>2025</v>
       </c>
@@ -9169,7 +9171,7 @@
         <v>8.7858750430000008</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>2025</v>
       </c>
@@ -9189,7 +9191,7 @@
         <v>41.738124040000002</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>2025</v>
       </c>
@@ -9209,7 +9211,7 @@
         <v>21.269464360000001</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>2025</v>
       </c>
@@ -9229,7 +9231,7 @@
         <v>12.202593439999999</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>2025</v>
       </c>
@@ -9249,7 +9251,7 @@
         <v>42.441375700000002</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>2026</v>
       </c>
@@ -9269,7 +9271,7 @@
         <v>18.075224810000002</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>2026</v>
       </c>
@@ -9289,7 +9291,7 @@
         <v>10.750287309999999</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>2026</v>
       </c>
@@ -9309,7 +9311,7 @@
         <v>15.070671920000001</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>2026</v>
       </c>
@@ -9329,7 +9331,7 @@
         <v>13.747874019999999</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>2026</v>
       </c>
@@ -9349,7 +9351,7 @@
         <v>72.395766949999995</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>2026</v>
       </c>
@@ -9369,7 +9371,7 @@
         <v>44.030317949999997</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>2026</v>
       </c>
@@ -9389,7 +9391,7 @@
         <v>1.6231797509999999</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>2026</v>
       </c>
@@ -9409,7 +9411,7 @@
         <v>8.8885147829999998</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>2026</v>
       </c>
@@ -9429,7 +9431,7 @@
         <v>41.969839030000003</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>2026</v>
       </c>
@@ -9449,7 +9451,7 @@
         <v>21.345168919999999</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>2026</v>
       </c>
@@ -9469,7 +9471,7 @@
         <v>12.223790040000001</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>2026</v>
       </c>
@@ -9489,7 +9491,7 @@
         <v>42.62732579</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>2027</v>
       </c>
@@ -9509,7 +9511,7 @@
         <v>18.125612230000002</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>2027</v>
       </c>
@@ -9529,7 +9531,7 @@
         <v>10.804959240000001</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>2027</v>
       </c>
@@ -9549,7 +9551,7 @@
         <v>15.1574724</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>2027</v>
       </c>
@@ -9569,7 +9571,7 @@
         <v>13.77305138</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>2027</v>
       </c>
@@ -9589,7 +9591,7 @@
         <v>72.427987900000005</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>2027</v>
       </c>
@@ -9609,7 +9611,7 @@
         <v>44.165226269999998</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>2027</v>
       </c>
@@ -9629,7 +9631,7 @@
         <v>1.6225130299999999</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>2027</v>
       </c>
@@ -9649,7 +9651,7 @@
         <v>8.9923535979999993</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>2027</v>
       </c>
@@ -9669,7 +9671,7 @@
         <v>42.202840420000001</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>2027</v>
       </c>
@@ -9689,7 +9691,7 @@
         <v>21.430458529999999</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>2027</v>
       </c>
@@ -9709,7 +9711,7 @@
         <v>12.24502347</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>2027</v>
       </c>
@@ -9729,7 +9731,7 @@
         <v>42.8140906</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>2028</v>
       </c>
@@ -9749,7 +9751,7 @@
         <v>18.173451530000001</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>2028</v>
       </c>
@@ -9769,7 +9771,7 @@
         <v>10.85990921</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>2028</v>
       </c>
@@ -9789,7 +9791,7 @@
         <v>15.2447728</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>2028</v>
       </c>
@@ -9809,7 +9811,7 @@
         <v>13.7939323</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>2028</v>
       </c>
@@ -9829,7 +9831,7 @@
         <v>72.460223200000001</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>2028</v>
       </c>
@@ -9849,7 +9851,7 @@
         <v>44.300547950000002</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>2028</v>
       </c>
@@ -9869,7 +9871,7 @@
         <v>1.622211992</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>2028</v>
       </c>
@@ -9889,7 +9891,7 @@
         <v>9.0974054960000004</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>2028</v>
       </c>
@@ -9909,7 +9911,7 @@
         <v>42.437135349999998</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>2028</v>
       </c>
@@ -9929,7 +9931,7 @@
         <v>21.519768819999999</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>2028</v>
       </c>
@@ -9949,7 +9951,7 @@
         <v>12.26629378</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>2028</v>
       </c>
@@ -9969,7 +9971,7 @@
         <v>43.001673680000003</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>2029</v>
       </c>
@@ -9989,7 +9991,7 @@
         <v>18.226362470000002</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>2029</v>
       </c>
@@ -10009,7 +10011,7 @@
         <v>10.91513863</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>2029</v>
       </c>
@@ -10029,7 +10031,7 @@
         <v>15.33257601</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>2029</v>
       </c>
@@ -10049,7 +10051,7 @@
         <v>13.81056551</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>2029</v>
       </c>
@@ -10069,7 +10071,7 @@
         <v>72.492472840000005</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>2029</v>
       </c>
@@ -10089,7 +10091,7 @@
         <v>44.43628425</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>2029</v>
       </c>
@@ -10109,7 +10111,7 @@
         <v>1.621698793</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>2029</v>
       </c>
@@ -10129,7 +10131,7 @@
         <v>9.2036846469999993</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>2029</v>
       </c>
@@ -10149,7 +10151,7 @@
         <v>42.672730999999999</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>2029</v>
       </c>
@@ -10169,7 +10171,7 @@
         <v>21.608521939999999</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>2029</v>
       </c>
@@ -10189,7 +10191,7 @@
         <v>12.28760104</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>2029</v>
       </c>
@@ -10209,7 +10211,7 @@
         <v>43.190078630000002</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>2030</v>
       </c>
@@ -10229,7 +10231,7 @@
         <v>18.261448229999999</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>2030</v>
       </c>
@@ -10249,7 +10251,7 @@
         <v>10.970648929999999</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>2030</v>
       </c>
@@ -10269,7 +10271,7 @@
         <v>15.420884940000001</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>2030</v>
       </c>
@@ -10289,7 +10291,7 @@
         <v>13.8239903</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>2030</v>
       </c>
@@ -10309,7 +10311,7 @@
         <v>72.524736829999995</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>2030</v>
       </c>
@@ -10329,7 +10331,7 @@
         <v>44.572436449999998</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>2030</v>
       </c>
@@ -10349,7 +10351,7 @@
         <v>1.6210036759999999</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>2030</v>
       </c>
@@ -10369,7 +10371,7 @@
         <v>9.3112053889999995</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>2030</v>
       </c>
@@ -10389,7 +10391,7 @@
         <v>42.909634590000003</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>2030</v>
       </c>
@@ -10409,7 +10411,7 @@
         <v>21.695598870000001</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>2030</v>
       </c>
@@ -10429,7 +10431,7 @@
         <v>12.30894531</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>2030</v>
       </c>
@@ -10449,7 +10451,7 @@
         <v>43.379309050000003</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>1990</v>
       </c>
@@ -10469,7 +10471,7 @@
         <v>22.80029566</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>1990</v>
       </c>
@@ -10489,7 +10491,7 @@
         <v>13.303693620000001</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>1990</v>
       </c>
@@ -10509,7 +10511,7 @@
         <v>18.39194071</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>1990</v>
       </c>
@@ -10529,7 +10531,7 @@
         <v>19.097524790000001</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>1990</v>
       </c>
@@ -10549,7 +10551,7 @@
         <v>110.17601809999999</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>1990</v>
       </c>
@@ -10569,7 +10571,7 @@
         <v>55.256846330000002</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>1990</v>
       </c>
@@ -10589,7 +10591,7 @@
         <v>2.0266490159999999</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>1990</v>
       </c>
@@ -10609,7 +10611,7 @@
         <v>10.644284710000001</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>1990</v>
       </c>
@@ -10629,7 +10631,7 @@
         <v>52.744917319999999</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>1990</v>
       </c>
@@ -10649,7 +10651,7 @@
         <v>24.533229519999999</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>1990</v>
       </c>
@@ -10669,7 +10671,7 @@
         <v>16.87346269</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>1990</v>
       </c>
@@ -10689,7 +10691,7 @@
         <v>55.074225689999999</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>1991</v>
       </c>
@@ -10709,7 +10711,7 @@
         <v>22.872343570000002</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>1991</v>
       </c>
@@ -10729,7 +10731,7 @@
         <v>13.7710607</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>1991</v>
       </c>
@@ -10749,7 +10751,7 @@
         <v>18.951112680000001</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>1991</v>
       </c>
@@ -10769,7 +10771,7 @@
         <v>19.721022260000002</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>1991</v>
       </c>
@@ -10789,7 +10791,7 @@
         <v>114.1941647</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>1991</v>
       </c>
@@ -10809,7 +10811,7 @@
         <v>56.632705299999998</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>1991</v>
       </c>
@@ -10829,7 +10831,7 @@
         <v>2.0189601019999999</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>1991</v>
       </c>
@@ -10849,7 +10851,7 @@
         <v>10.94503695</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>1991</v>
       </c>
@@ -10869,7 +10871,7 @@
         <v>54.821729789999999</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>1991</v>
       </c>
@@ -10889,7 +10891,7 @@
         <v>24.680260839999999</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>1991</v>
       </c>
@@ -10909,7 +10911,7 @@
         <v>17.062160389999999</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>1991</v>
       </c>
@@ -10929,7 +10931,7 @@
         <v>56.542758069999998</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>1992</v>
       </c>
@@ -10949,7 +10951,7 @@
         <v>22.893258419999999</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>1992</v>
       </c>
@@ -10969,7 +10971,7 @@
         <v>14.0268921</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>1992</v>
       </c>
@@ -10989,7 +10991,7 @@
         <v>19.504848939999999</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>1992</v>
       </c>
@@ -11009,7 +11011,7 @@
         <v>20.306991759999999</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>1992</v>
       </c>
@@ -11029,7 +11031,7 @@
         <v>117.3748586</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>1992</v>
       </c>
@@ -11049,7 +11051,7 @@
         <v>58.033855930000001</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>1992</v>
       </c>
@@ -11069,7 +11071,7 @@
         <v>2.0511117759999999</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>1992</v>
       </c>
@@ -11089,7 +11091,7 @@
         <v>11.271019799999999</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>1992</v>
       </c>
@@ -11109,7 +11111,7 @@
         <v>56.120399839999997</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>1992</v>
       </c>
@@ -11129,7 +11131,7 @@
         <v>24.834661400000002</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>1992</v>
       </c>
@@ -11149,7 +11151,7 @@
         <v>17.240219620000001</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>1992</v>
       </c>
@@ -11169,7 +11171,7 @@
         <v>58.206437860000001</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>1993</v>
       </c>
@@ -11189,7 +11191,7 @@
         <v>23.011865669999999</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>1993</v>
       </c>
@@ -11209,7 +11211,7 @@
         <v>14.27916291</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>1993</v>
       </c>
@@ -11229,7 +11231,7 @@
         <v>19.82837971</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>1993</v>
       </c>
@@ -11249,7 +11251,7 @@
         <v>20.34861673</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>1993</v>
       </c>
@@ -11269,7 +11271,7 @@
         <v>117.49412270000001</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>1993</v>
       </c>
@@ -11289,7 +11291,7 @@
         <v>60.031163390000003</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>1993</v>
       </c>
@@ -11309,7 +11311,7 @@
         <v>2.1296999730000001</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>1993</v>
       </c>
@@ -11329,7 +11331,7 @@
         <v>11.41947278</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>1993</v>
       </c>
@@ -11349,7 +11351,7 @@
         <v>57.24865252</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>1993</v>
       </c>
@@ -11369,7 +11371,7 @@
         <v>24.897027059999999</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>1993</v>
       </c>
@@ -11389,7 +11391,7 @@
         <v>17.378222040000001</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>1993</v>
       </c>
@@ -11409,7 +11411,7 @@
         <v>58.86041299</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>1994</v>
       </c>
@@ -11429,7 +11431,7 @@
         <v>23.008237449999999</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>1994</v>
       </c>
@@ -11449,7 +11451,7 @@
         <v>14.48311796</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>1994</v>
       </c>
@@ -11469,7 +11471,7 @@
         <v>20.266770139999998</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>1994</v>
       </c>
@@ -11489,7 +11491,7 @@
         <v>20.289689790000001</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>1994</v>
       </c>
@@ -11509,7 +11511,7 @@
         <v>117.54215360000001</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>1994</v>
       </c>
@@ -11529,7 +11531,7 @@
         <v>61.47978621</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>1994</v>
       </c>
@@ -11549,7 +11551,7 @@
         <v>2.1814308150000001</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>1994</v>
       </c>
@@ -11569,7 +11571,7 @@
         <v>11.509861239999999</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>1994</v>
       </c>
@@ -11589,7 +11591,7 @@
         <v>58.100390779999998</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>1994</v>
       </c>
@@ -11609,7 +11611,7 @@
         <v>24.891228890000001</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>1994</v>
       </c>
@@ -11629,7 +11631,7 @@
         <v>17.466350420000001</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>1994</v>
       </c>
@@ -11649,7 +11651,7 @@
         <v>58.923480040000001</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>1995</v>
       </c>
@@ -11669,7 +11671,7 @@
         <v>22.90470899</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>1995</v>
       </c>
@@ -11689,7 +11691,7 @@
         <v>14.60253301</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>1995</v>
       </c>
@@ -11709,7 +11711,7 @@
         <v>20.43015681</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>1995</v>
       </c>
@@ -11729,7 +11731,7 @@
         <v>20.244861279999999</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>1995</v>
       </c>
@@ -11749,7 +11751,7 @@
         <v>117.5397858</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>1995</v>
       </c>
@@ -11769,7 +11771,7 @@
         <v>61.992783959999997</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>1995</v>
       </c>
@@ -11789,7 +11791,7 @@
         <v>2.2496281749999998</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>1995</v>
       </c>
@@ -11809,7 +11811,7 @@
         <v>11.57506802</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>1995</v>
       </c>
@@ -11829,7 +11831,7 @@
         <v>58.608423209999998</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>1995</v>
       </c>
@@ -11849,7 +11851,7 @@
         <v>25.028868930000002</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>1995</v>
       </c>
@@ -11869,7 +11871,7 @@
         <v>17.52488468</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>1995</v>
       </c>
@@ -11889,7 +11891,7 @@
         <v>58.855377730000001</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>1996</v>
       </c>
@@ -11909,7 +11911,7 @@
         <v>22.86287484</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>1996</v>
       </c>
@@ -11929,7 +11931,7 @@
         <v>14.707428139999999</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>1996</v>
       </c>
@@ -11949,7 +11951,7 @@
         <v>20.47868716</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>1996</v>
       </c>
@@ -11969,7 +11971,7 @@
         <v>20.208021299999999</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>1996</v>
       </c>
@@ -11989,7 +11991,7 @@
         <v>117.4387433</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>1996</v>
       </c>
@@ -12009,7 +12011,7 @@
         <v>62.598077400000001</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>1996</v>
       </c>
@@ -12029,7 +12031,7 @@
         <v>2.26092994</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>1996</v>
       </c>
@@ -12049,7 +12051,7 @@
         <v>11.69901071</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>1996</v>
       </c>
@@ -12069,7 +12071,7 @@
         <v>59.088978099999999</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>1996</v>
       </c>
@@ -12089,7 +12091,7 @@
         <v>25.049935810000001</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>1996</v>
       </c>
@@ -12109,7 +12111,7 @@
         <v>17.647937200000001</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>1996</v>
       </c>
@@ -12129,7 +12131,7 @@
         <v>58.972063640000002</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>1997</v>
       </c>
@@ -12149,7 +12151,7 @@
         <v>22.8070436</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>1997</v>
       </c>
@@ -12169,7 +12171,7 @@
         <v>14.86053021</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>1997</v>
       </c>
@@ -12189,7 +12191,7 @@
         <v>20.612119379999999</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>1997</v>
       </c>
@@ -12209,7 +12211,7 @@
         <v>20.13596351</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>1997</v>
       </c>
@@ -12229,7 +12231,7 @@
         <v>117.1917045</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>1997</v>
       </c>
@@ -12249,7 +12251,7 @@
         <v>63.36521363</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>1997</v>
       </c>
@@ -12269,7 +12271,7 @@
         <v>2.253277974</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>1997</v>
       </c>
@@ -12289,7 +12291,7 @@
         <v>11.807943270000001</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>1997</v>
       </c>
@@ -12309,7 +12311,7 @@
         <v>59.768959870000003</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>1997</v>
       </c>
@@ -12329,7 +12331,7 @@
         <v>25.02701841</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>1997</v>
       </c>
@@ -12349,7 +12351,7 @@
         <v>17.674054290000001</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>1997</v>
       </c>
@@ -12369,7 +12371,7 @@
         <v>59.1920517</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>1998</v>
       </c>
@@ -12389,7 +12391,7 @@
         <v>22.782101820000001</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>1998</v>
       </c>
@@ -12409,7 +12411,7 @@
         <v>15.024769360000001</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>1998</v>
       </c>
@@ -12429,7 +12431,7 @@
         <v>20.799169769999999</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>1998</v>
       </c>
@@ -12449,7 +12451,7 @@
         <v>20.205572289999999</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>1998</v>
       </c>
@@ -12469,7 +12471,7 @@
         <v>117.1637747</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>1998</v>
       </c>
@@ -12489,7 +12491,7 @@
         <v>64.290792809999999</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>1998</v>
       </c>
@@ -12509,7 +12511,7 @@
         <v>2.2658039670000001</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>1998</v>
       </c>
@@ -12529,7 +12531,7 @@
         <v>11.9512964</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>1998</v>
       </c>
@@ -12549,7 +12551,7 @@
         <v>60.494546239999998</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>1998</v>
       </c>
@@ -12569,7 +12571,7 @@
         <v>24.99972391</v>
       </c>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A604">
         <v>1998</v>
       </c>
@@ -12589,7 +12591,7 @@
         <v>17.741682300000001</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>1998</v>
       </c>
@@ -12609,7 +12611,7 @@
         <v>59.435895500000001</v>
       </c>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A606">
         <v>1999</v>
       </c>
@@ -12629,7 +12631,7 @@
         <v>22.774844439999999</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A607">
         <v>1999</v>
       </c>
@@ -12649,7 +12651,7 @@
         <v>15.1705746</v>
       </c>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A608">
         <v>1999</v>
       </c>
@@ -12669,7 +12671,7 @@
         <v>20.948634970000001</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A609">
         <v>1999</v>
       </c>
@@ -12689,7 +12691,7 @@
         <v>20.433506449999999</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A610">
         <v>1999</v>
       </c>
@@ -12709,7 +12711,7 @@
         <v>117.4988704</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A611">
         <v>1999</v>
       </c>
@@ -12729,7 +12731,7 @@
         <v>64.931303869999994</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A612">
         <v>1999</v>
       </c>
@@ -12749,7 +12751,7 @@
         <v>2.2778860120000002</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A613">
         <v>1999</v>
       </c>
@@ -12769,7 +12771,7 @@
         <v>12.08831189</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A614">
         <v>1999</v>
       </c>
@@ -12789,7 +12791,7 @@
         <v>61.171848109999999</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A615">
         <v>1999</v>
       </c>
@@ -12809,7 +12811,7 @@
         <v>25.141374339999999</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A616">
         <v>1999</v>
       </c>
@@ -12829,7 +12831,7 @@
         <v>17.835639560000001</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A617">
         <v>1999</v>
       </c>
@@ -12849,7 +12851,7 @@
         <v>59.826507419999999</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A618">
         <v>2000</v>
       </c>
@@ -12869,7 +12871,7 @@
         <v>22.735742890000001</v>
       </c>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A619">
         <v>2000</v>
       </c>
@@ -12889,7 +12891,7 @@
         <v>15.413382759999999</v>
       </c>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A620">
         <v>2000</v>
       </c>
@@ -12909,7 +12911,7 @@
         <v>21.13265857</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A621">
         <v>2000</v>
       </c>
@@ -12929,7 +12931,7 @@
         <v>20.631471909999998</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A622">
         <v>2000</v>
       </c>
@@ -12949,7 +12951,7 @@
         <v>118.5388681</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A623">
         <v>2000</v>
       </c>
@@ -12969,7 +12971,7 @@
         <v>66.421711560000006</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A624">
         <v>2000</v>
       </c>
@@ -12989,7 +12991,7 @@
         <v>2.2631402550000002</v>
       </c>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A625">
         <v>2000</v>
       </c>
@@ -13009,7 +13011,7 @@
         <v>12.35589903</v>
       </c>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A626">
         <v>2000</v>
       </c>
@@ -13029,7 +13031,7 @@
         <v>62.367723130000002</v>
       </c>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A627">
         <v>2000</v>
       </c>
@@ -13049,7 +13051,7 @@
         <v>25.172571019999999</v>
       </c>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A628">
         <v>2000</v>
       </c>
@@ -13069,7 +13071,7 @@
         <v>17.94082826</v>
       </c>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A629">
         <v>2000</v>
       </c>
@@ -13089,7 +13091,7 @@
         <v>61.179066149999997</v>
       </c>
     </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A630">
         <v>2001</v>
       </c>
@@ -13109,7 +13111,7 @@
         <v>22.876247429999999</v>
       </c>
     </row>
-    <row r="631" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A631">
         <v>2001</v>
       </c>
@@ -13129,7 +13131,7 @@
         <v>15.636477470000001</v>
       </c>
     </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A632">
         <v>2001</v>
       </c>
@@ -13149,7 +13151,7 @@
         <v>21.41765277</v>
       </c>
     </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A633">
         <v>2001</v>
       </c>
@@ -13169,7 +13171,7 @@
         <v>20.73219804</v>
       </c>
     </row>
-    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A634">
         <v>2001</v>
       </c>
@@ -13189,7 +13191,7 @@
         <v>119.29046219999999</v>
       </c>
     </row>
-    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A635">
         <v>2001</v>
       </c>
@@ -13209,7 +13211,7 @@
         <v>67.586060810000006</v>
       </c>
     </row>
-    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A636">
         <v>2001</v>
       </c>
@@ -13229,7 +13231,7 @@
         <v>2.3426826580000002</v>
       </c>
     </row>
-    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A637">
         <v>2001</v>
       </c>
@@ -13249,7 +13251,7 @@
         <v>12.62734335</v>
       </c>
     </row>
-    <row r="638" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A638">
         <v>2001</v>
       </c>
@@ -13269,7 +13271,7 @@
         <v>63.483821429999999</v>
       </c>
     </row>
-    <row r="639" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A639">
         <v>2001</v>
       </c>
@@ -13289,7 +13291,7 @@
         <v>25.320302510000001</v>
       </c>
     </row>
-    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A640">
         <v>2001</v>
       </c>
@@ -13309,7 +13311,7 @@
         <v>18.072209440000002</v>
       </c>
     </row>
-    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A641">
         <v>2001</v>
       </c>
@@ -13329,7 +13331,7 @@
         <v>62.506306330000001</v>
       </c>
     </row>
-    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A642">
         <v>2002</v>
       </c>
@@ -13349,7 +13351,7 @@
         <v>22.960326999999999</v>
       </c>
     </row>
-    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A643">
         <v>2002</v>
       </c>
@@ -13369,7 +13371,7 @@
         <v>15.854203310000001</v>
       </c>
     </row>
-    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A644">
         <v>2002</v>
       </c>
@@ -13389,7 +13391,7 @@
         <v>21.840122109999999</v>
       </c>
     </row>
-    <row r="645" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A645">
         <v>2002</v>
       </c>
@@ -13409,7 +13411,7 @@
         <v>20.740886549999999</v>
       </c>
     </row>
-    <row r="646" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A646">
         <v>2002</v>
       </c>
@@ -13429,7 +13431,7 @@
         <v>119.8510694</v>
       </c>
     </row>
-    <row r="647" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A647">
         <v>2002</v>
       </c>
@@ -13449,7 +13451,7 @@
         <v>68.715727119999997</v>
       </c>
     </row>
-    <row r="648" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A648">
         <v>2002</v>
       </c>
@@ -13469,7 +13471,7 @@
         <v>2.328132509</v>
       </c>
     </row>
-    <row r="649" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A649">
         <v>2002</v>
       </c>
@@ -13489,7 +13491,7 @@
         <v>12.98040438</v>
       </c>
     </row>
-    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A650">
         <v>2002</v>
       </c>
@@ -13509,7 +13511,7 @@
         <v>64.634818999999993</v>
       </c>
     </row>
-    <row r="651" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A651">
         <v>2002</v>
       </c>
@@ -13529,7 +13531,7 @@
         <v>25.495688300000001</v>
       </c>
     </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A652">
         <v>2002</v>
       </c>
@@ -13549,7 +13551,7 @@
         <v>18.226489409999999</v>
       </c>
     </row>
-    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A653">
         <v>2002</v>
       </c>
@@ -13569,7 +13571,7 @@
         <v>64.195475250000001</v>
       </c>
     </row>
-    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A654">
         <v>2003</v>
       </c>
@@ -13589,7 +13591,7 @@
         <v>23.05360121</v>
       </c>
     </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A655">
         <v>2003</v>
       </c>
@@ -13609,7 +13611,7 @@
         <v>16.130534390000001</v>
       </c>
     </row>
-    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A656">
         <v>2003</v>
       </c>
@@ -13629,7 +13631,7 @@
         <v>22.438737790000001</v>
       </c>
     </row>
-    <row r="657" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A657">
         <v>2003</v>
       </c>
@@ -13649,7 +13651,7 @@
         <v>20.842808389999998</v>
       </c>
     </row>
-    <row r="658" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A658">
         <v>2003</v>
       </c>
@@ -13669,7 +13671,7 @@
         <v>120.9247278</v>
       </c>
     </row>
-    <row r="659" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A659">
         <v>2003</v>
       </c>
@@ -13689,7 +13691,7 @@
         <v>69.638853560000001</v>
       </c>
     </row>
-    <row r="660" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A660">
         <v>2003</v>
       </c>
@@ -13709,7 +13711,7 @@
         <v>2.3492585539999999</v>
       </c>
     </row>
-    <row r="661" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A661">
         <v>2003</v>
       </c>
@@ -13729,7 +13731,7 @@
         <v>13.24857175</v>
       </c>
     </row>
-    <row r="662" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A662">
         <v>2003</v>
       </c>
@@ -13749,7 +13751,7 @@
         <v>65.936741519999998</v>
       </c>
     </row>
-    <row r="663" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A663">
         <v>2003</v>
       </c>
@@ -13769,7 +13771,7 @@
         <v>25.663595170000001</v>
       </c>
     </row>
-    <row r="664" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A664">
         <v>2003</v>
       </c>
@@ -13789,7 +13791,7 @@
         <v>18.34262927</v>
       </c>
     </row>
-    <row r="665" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A665">
         <v>2003</v>
       </c>
@@ -13809,7 +13811,7 @@
         <v>65.417482120000003</v>
       </c>
     </row>
-    <row r="666" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A666">
         <v>2004</v>
       </c>
@@ -13829,7 +13831,7 @@
         <v>23.002057199999999</v>
       </c>
     </row>
-    <row r="667" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A667">
         <v>2004</v>
       </c>
@@ -13849,7 +13851,7 @@
         <v>16.22884191</v>
       </c>
     </row>
-    <row r="668" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A668">
         <v>2004</v>
       </c>
@@ -13869,7 +13871,7 @@
         <v>23.016208599999999</v>
       </c>
     </row>
-    <row r="669" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A669">
         <v>2004</v>
       </c>
@@ -13889,7 +13891,7 @@
         <v>20.775513329999999</v>
       </c>
     </row>
-    <row r="670" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A670">
         <v>2004</v>
       </c>
@@ -13909,7 +13911,7 @@
         <v>121.2835918</v>
       </c>
     </row>
-    <row r="671" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A671">
         <v>2004</v>
       </c>
@@ -13929,7 +13931,7 @@
         <v>70.603459670000007</v>
       </c>
     </row>
-    <row r="672" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A672">
         <v>2004</v>
       </c>
@@ -13949,7 +13951,7 @@
         <v>2.4210111900000002</v>
       </c>
     </row>
-    <row r="673" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A673">
         <v>2004</v>
       </c>
@@ -13969,7 +13971,7 @@
         <v>13.46781022</v>
       </c>
     </row>
-    <row r="674" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A674">
         <v>2004</v>
       </c>
@@ -13989,7 +13991,7 @@
         <v>66.534101219999997</v>
       </c>
     </row>
-    <row r="675" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A675">
         <v>2004</v>
       </c>
@@ -14009,7 +14011,7 @@
         <v>25.982699140000001</v>
       </c>
     </row>
-    <row r="676" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A676">
         <v>2004</v>
       </c>
@@ -14029,7 +14031,7 @@
         <v>18.432726840000001</v>
       </c>
     </row>
-    <row r="677" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A677">
         <v>2004</v>
       </c>
@@ -14049,7 +14051,7 @@
         <v>66.482630619999995</v>
       </c>
     </row>
-    <row r="678" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A678">
         <v>2005</v>
       </c>
@@ -14069,7 +14071,7 @@
         <v>22.993875979999999</v>
       </c>
     </row>
-    <row r="679" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A679">
         <v>2005</v>
       </c>
@@ -14089,7 +14091,7 @@
         <v>16.366427640000001</v>
       </c>
     </row>
-    <row r="680" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A680">
         <v>2005</v>
       </c>
@@ -14109,7 +14111,7 @@
         <v>23.44524921</v>
       </c>
     </row>
-    <row r="681" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A681">
         <v>2005</v>
       </c>
@@ -14129,7 +14131,7 @@
         <v>20.713761909999999</v>
       </c>
     </row>
-    <row r="682" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A682">
         <v>2005</v>
       </c>
@@ -14149,7 +14151,7 @@
         <v>121.33881409999999</v>
       </c>
     </row>
-    <row r="683" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A683">
         <v>2005</v>
       </c>
@@ -14169,7 +14171,7 @@
         <v>71.152050579999994</v>
       </c>
     </row>
-    <row r="684" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A684">
         <v>2005</v>
       </c>
@@ -14189,7 +14191,7 @@
         <v>2.42142474</v>
       </c>
     </row>
-    <row r="685" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A685">
         <v>2005</v>
       </c>
@@ -14209,7 +14211,7 @@
         <v>13.625693849999999</v>
       </c>
     </row>
-    <row r="686" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A686">
         <v>2005</v>
       </c>
@@ -14229,7 +14231,7 @@
         <v>67.244884729999995</v>
       </c>
     </row>
-    <row r="687" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A687">
         <v>2005</v>
       </c>
@@ -14249,7 +14251,7 @@
         <v>26.705033759999999</v>
       </c>
     </row>
-    <row r="688" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A688">
         <v>2005</v>
       </c>
@@ -14269,7 +14271,7 @@
         <v>18.498060540000001</v>
       </c>
     </row>
-    <row r="689" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A689">
         <v>2005</v>
       </c>
@@ -14289,7 +14291,7 @@
         <v>67.315173669999993</v>
       </c>
     </row>
-    <row r="690" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A690">
         <v>2006</v>
       </c>
@@ -14309,7 +14311,7 @@
         <v>23.044904559999999</v>
       </c>
     </row>
-    <row r="691" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A691">
         <v>2006</v>
       </c>
@@ -14329,7 +14331,7 @@
         <v>16.46928325</v>
       </c>
     </row>
-    <row r="692" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A692">
         <v>2006</v>
       </c>
@@ -14349,7 +14351,7 @@
         <v>24.31161028</v>
       </c>
     </row>
-    <row r="693" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A693">
         <v>2006</v>
       </c>
@@ -14369,7 +14371,7 @@
         <v>20.74654967</v>
       </c>
     </row>
-    <row r="694" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A694">
         <v>2006</v>
       </c>
@@ -14389,7 +14391,7 @@
         <v>121.56860349999999</v>
       </c>
     </row>
-    <row r="695" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A695">
         <v>2006</v>
       </c>
@@ -14409,7 +14411,7 @@
         <v>71.822499989999997</v>
       </c>
     </row>
-    <row r="696" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A696">
         <v>2006</v>
       </c>
@@ -14429,7 +14431,7 @@
         <v>2.4233592150000001</v>
       </c>
     </row>
-    <row r="697" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A697">
         <v>2006</v>
       </c>
@@ -14449,7 +14451,7 @@
         <v>13.79286175</v>
       </c>
     </row>
-    <row r="698" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A698">
         <v>2006</v>
       </c>
@@ -14469,7 +14471,7 @@
         <v>67.813160269999997</v>
       </c>
     </row>
-    <row r="699" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A699">
         <v>2006</v>
       </c>
@@ -14489,7 +14491,7 @@
         <v>27.34361638</v>
       </c>
     </row>
-    <row r="700" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A700">
         <v>2006</v>
       </c>
@@ -14509,7 +14511,7 @@
         <v>18.558840400000001</v>
       </c>
     </row>
-    <row r="701" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A701">
         <v>2006</v>
       </c>
@@ -14529,7 +14531,7 @@
         <v>68.087335269999997</v>
       </c>
     </row>
-    <row r="702" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A702">
         <v>2007</v>
       </c>
@@ -14549,7 +14551,7 @@
         <v>23.101181839999999</v>
       </c>
     </row>
-    <row r="703" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A703">
         <v>2007</v>
       </c>
@@ -14569,7 +14571,7 @@
         <v>16.64257516</v>
       </c>
     </row>
-    <row r="704" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A704">
         <v>2007</v>
       </c>
@@ -14589,7 +14591,7 @@
         <v>24.411318099999999</v>
       </c>
     </row>
-    <row r="705" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A705">
         <v>2007</v>
       </c>
@@ -14609,7 +14611,7 @@
         <v>20.716019580000001</v>
       </c>
     </row>
-    <row r="706" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A706">
         <v>2007</v>
       </c>
@@ -14629,7 +14631,7 @@
         <v>121.8668639</v>
       </c>
     </row>
-    <row r="707" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A707">
         <v>2007</v>
       </c>
@@ -14649,7 +14651,7 @@
         <v>72.574889229999997</v>
       </c>
     </row>
-    <row r="708" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A708">
         <v>2007</v>
       </c>
@@ -14669,7 +14671,7 @@
         <v>2.4122721290000002</v>
       </c>
     </row>
-    <row r="709" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A709">
         <v>2007</v>
       </c>
@@ -14689,7 +14691,7 @@
         <v>13.92756511</v>
       </c>
     </row>
-    <row r="710" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A710">
         <v>2007</v>
       </c>
@@ -14709,7 +14711,7 @@
         <v>68.626291199999997</v>
       </c>
     </row>
-    <row r="711" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A711">
         <v>2007</v>
       </c>
@@ -14729,7 +14731,7 @@
         <v>27.726637920000002</v>
       </c>
     </row>
-    <row r="712" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A712">
         <v>2007</v>
       </c>
@@ -14749,7 +14751,7 @@
         <v>18.609049540000001</v>
       </c>
     </row>
-    <row r="713" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A713">
         <v>2007</v>
       </c>
@@ -14769,7 +14771,7 @@
         <v>68.707399629999998</v>
       </c>
     </row>
-    <row r="714" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A714">
         <v>2008</v>
       </c>
@@ -14789,7 +14791,7 @@
         <v>23.231010059999999</v>
       </c>
     </row>
-    <row r="715" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A715">
         <v>2008</v>
       </c>
@@ -14809,7 +14811,7 @@
         <v>16.80076613</v>
       </c>
     </row>
-    <row r="716" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A716">
         <v>2008</v>
       </c>
@@ -14829,7 +14831,7 @@
         <v>25.002735609999998</v>
       </c>
     </row>
-    <row r="717" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A717">
         <v>2008</v>
       </c>
@@ -14849,7 +14851,7 @@
         <v>21.08227608</v>
       </c>
     </row>
-    <row r="718" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A718">
         <v>2008</v>
       </c>
@@ -14869,7 +14871,7 @@
         <v>122.0071435</v>
       </c>
     </row>
-    <row r="719" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A719">
         <v>2008</v>
       </c>
@@ -14889,7 +14891,7 @@
         <v>73.315781749999999</v>
       </c>
     </row>
-    <row r="720" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A720">
         <v>2008</v>
       </c>
@@ -14909,7 +14911,7 @@
         <v>2.3978510700000002</v>
       </c>
     </row>
-    <row r="721" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A721">
         <v>2008</v>
       </c>
@@ -14929,7 +14931,7 @@
         <v>14.00616046</v>
       </c>
     </row>
-    <row r="722" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A722">
         <v>2008</v>
       </c>
@@ -14949,7 +14951,7 @@
         <v>69.313632209999994</v>
       </c>
     </row>
-    <row r="723" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A723">
         <v>2008</v>
       </c>
@@ -14969,7 +14971,7 @@
         <v>28.15811944</v>
       </c>
     </row>
-    <row r="724" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A724">
         <v>2008</v>
       </c>
@@ -14989,7 +14991,7 @@
         <v>18.648783869999999</v>
       </c>
     </row>
-    <row r="725" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A725">
         <v>2008</v>
       </c>
@@ -15009,7 +15011,7 @@
         <v>68.890561020000007</v>
       </c>
     </row>
-    <row r="726" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A726">
         <v>2009</v>
       </c>
@@ -15029,7 +15031,7 @@
         <v>23.443690050000001</v>
       </c>
     </row>
-    <row r="727" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A727">
         <v>2009</v>
       </c>
@@ -15049,7 +15051,7 @@
         <v>16.91629481</v>
       </c>
     </row>
-    <row r="728" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A728">
         <v>2009</v>
       </c>
@@ -15069,7 +15071,7 @@
         <v>25.310429280000001</v>
       </c>
     </row>
-    <row r="729" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A729">
         <v>2009</v>
       </c>
@@ -15089,7 +15091,7 @@
         <v>21.431199119999999</v>
       </c>
     </row>
-    <row r="730" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A730">
         <v>2009</v>
       </c>
@@ -15109,7 +15111,7 @@
         <v>122.370102</v>
       </c>
     </row>
-    <row r="731" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A731">
         <v>2009</v>
       </c>
@@ -15129,7 +15131,7 @@
         <v>73.952506099999994</v>
       </c>
     </row>
-    <row r="732" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A732">
         <v>2009</v>
       </c>
@@ -15149,7 +15151,7 @@
         <v>2.384070216</v>
       </c>
     </row>
-    <row r="733" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A733">
         <v>2009</v>
       </c>
@@ -15169,7 +15171,7 @@
         <v>14.04968098</v>
       </c>
     </row>
-    <row r="734" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A734">
         <v>2009</v>
       </c>
@@ -15189,7 +15191,7 @@
         <v>69.817857459999999</v>
       </c>
     </row>
-    <row r="735" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A735">
         <v>2009</v>
       </c>
@@ -15209,7 +15211,7 @@
         <v>28.446500530000002</v>
       </c>
     </row>
-    <row r="736" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A736">
         <v>2009</v>
       </c>
@@ -15229,7 +15231,7 @@
         <v>18.642811930000001</v>
       </c>
     </row>
-    <row r="737" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A737">
         <v>2009</v>
       </c>
@@ -15249,7 +15251,7 @@
         <v>68.946507260000004</v>
       </c>
     </row>
-    <row r="738" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A738">
         <v>2010</v>
       </c>
@@ -15269,7 +15271,7 @@
         <v>23.564226819999998</v>
       </c>
     </row>
-    <row r="739" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A739">
         <v>2010</v>
       </c>
@@ -15289,7 +15291,7 @@
         <v>16.96574601</v>
       </c>
     </row>
-    <row r="740" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A740">
         <v>2010</v>
       </c>
@@ -15309,7 +15311,7 @@
         <v>25.517037999999999</v>
       </c>
     </row>
-    <row r="741" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A741">
         <v>2010</v>
       </c>
@@ -15329,7 +15331,7 @@
         <v>21.349840579999999</v>
       </c>
     </row>
-    <row r="742" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A742">
         <v>2010</v>
       </c>
@@ -15349,7 +15351,7 @@
         <v>122.1431331</v>
       </c>
     </row>
-    <row r="743" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A743">
         <v>2010</v>
       </c>
@@ -15369,7 +15371,7 @@
         <v>74.428100720000003</v>
       </c>
     </row>
-    <row r="744" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A744">
         <v>2010</v>
       </c>
@@ -15389,7 +15391,7 @@
         <v>2.3794340420000002</v>
       </c>
     </row>
-    <row r="745" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A745">
         <v>2010</v>
       </c>
@@ -15409,7 +15411,7 @@
         <v>14.08133297</v>
       </c>
     </row>
-    <row r="746" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A746">
         <v>2010</v>
       </c>
@@ -15429,7 +15431,7 @@
         <v>70.078735649999999</v>
       </c>
     </row>
-    <row r="747" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A747">
         <v>2010</v>
       </c>
@@ -15449,7 +15451,7 @@
         <v>28.955450370000001</v>
       </c>
     </row>
-    <row r="748" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A748">
         <v>2010</v>
       </c>
@@ -15469,7 +15471,7 @@
         <v>18.609423899999999</v>
       </c>
     </row>
-    <row r="749" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A749">
         <v>2010</v>
       </c>
@@ -15489,7 +15491,7 @@
         <v>69.063798919999996</v>
       </c>
     </row>
-    <row r="750" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A750">
         <v>2011</v>
       </c>
@@ -15509,7 +15511,7 @@
         <v>23.52973369</v>
       </c>
     </row>
-    <row r="751" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A751">
         <v>2011</v>
       </c>
@@ -15529,7 +15531,7 @@
         <v>16.955627849999999</v>
       </c>
     </row>
-    <row r="752" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A752">
         <v>2011</v>
       </c>
@@ -15549,7 +15551,7 @@
         <v>25.542211269999999</v>
       </c>
     </row>
-    <row r="753" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A753">
         <v>2011</v>
       </c>
@@ -15569,7 +15571,7 @@
         <v>21.263931159999998</v>
       </c>
     </row>
-    <row r="754" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A754">
         <v>2011</v>
       </c>
@@ -15589,7 +15591,7 @@
         <v>121.75744589999999</v>
       </c>
     </row>
-    <row r="755" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A755">
         <v>2011</v>
       </c>
@@ -15609,7 +15611,7 @@
         <v>74.771683010000004</v>
       </c>
     </row>
-    <row r="756" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A756">
         <v>2011</v>
       </c>
@@ -15629,7 +15631,7 @@
         <v>2.3649647530000002</v>
       </c>
     </row>
-    <row r="757" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A757">
         <v>2011</v>
       </c>
@@ -15649,7 +15651,7 @@
         <v>14.07074472</v>
       </c>
     </row>
-    <row r="758" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A758">
         <v>2011</v>
       </c>
@@ -15669,7 +15671,7 @@
         <v>70.068097660000006</v>
       </c>
     </row>
-    <row r="759" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A759">
         <v>2011</v>
       </c>
@@ -15689,7 +15691,7 @@
         <v>29.479857769999999</v>
       </c>
     </row>
-    <row r="760" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A760">
         <v>2011</v>
       </c>
@@ -15709,7 +15711,7 @@
         <v>18.55917015</v>
       </c>
     </row>
-    <row r="761" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A761">
         <v>2011</v>
       </c>
@@ -15729,7 +15731,7 @@
         <v>68.899642920000005</v>
       </c>
     </row>
-    <row r="762" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A762">
         <v>2012</v>
       </c>
@@ -15749,7 +15751,7 @@
         <v>23.62499584</v>
       </c>
     </row>
-    <row r="763" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A763">
         <v>2012</v>
       </c>
@@ -15769,7 +15771,7 @@
         <v>16.94632271</v>
       </c>
     </row>
-    <row r="764" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A764">
         <v>2012</v>
       </c>
@@ -15789,7 +15791,7 @@
         <v>25.829856079999999</v>
       </c>
     </row>
-    <row r="765" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A765">
         <v>2012</v>
       </c>
@@ -15809,7 +15811,7 @@
         <v>21.18491547</v>
       </c>
     </row>
-    <row r="766" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A766">
         <v>2012</v>
       </c>
@@ -15829,7 +15831,7 @@
         <v>121.3523526</v>
       </c>
     </row>
-    <row r="767" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A767">
         <v>2012</v>
       </c>
@@ -15849,7 +15851,7 @@
         <v>75.056440660000007</v>
       </c>
     </row>
-    <row r="768" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A768">
         <v>2012</v>
       </c>
@@ -15869,7 +15871,7 @@
         <v>2.350451187</v>
       </c>
     </row>
-    <row r="769" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A769">
         <v>2012</v>
       </c>
@@ -15889,7 +15891,7 @@
         <v>14.055872559999999</v>
       </c>
     </row>
-    <row r="770" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A770">
         <v>2012</v>
       </c>
@@ -15909,7 +15911,7 @@
         <v>70.044463100000002</v>
       </c>
     </row>
-    <row r="771" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A771">
         <v>2012</v>
       </c>
@@ -15929,7 +15931,7 @@
         <v>29.875719549999999</v>
       </c>
     </row>
-    <row r="772" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A772">
         <v>2012</v>
       </c>
@@ -15949,7 +15951,7 @@
         <v>18.49315627</v>
       </c>
     </row>
-    <row r="773" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A773">
         <v>2012</v>
       </c>
@@ -15969,7 +15971,7 @@
         <v>68.634820169999998</v>
       </c>
     </row>
-    <row r="774" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A774">
         <v>2013</v>
       </c>
@@ -15989,7 +15991,7 @@
         <v>23.578485260000001</v>
       </c>
     </row>
-    <row r="775" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A775">
         <v>2013</v>
       </c>
@@ -16009,7 +16011,7 @@
         <v>16.91803586</v>
       </c>
     </row>
-    <row r="776" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A776">
         <v>2013</v>
       </c>
@@ -16029,7 +16031,7 @@
         <v>25.97085564</v>
       </c>
     </row>
-    <row r="777" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A777">
         <v>2013</v>
       </c>
@@ -16049,7 +16051,7 @@
         <v>21.155006700000001</v>
       </c>
     </row>
-    <row r="778" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A778">
         <v>2013</v>
       </c>
@@ -16069,7 +16071,7 @@
         <v>121.0752713</v>
       </c>
     </row>
-    <row r="779" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A779">
         <v>2013</v>
       </c>
@@ -16089,7 +16091,7 @@
         <v>74.944392149999999</v>
       </c>
     </row>
-    <row r="780" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A780">
         <v>2013</v>
       </c>
@@ -16109,7 +16111,7 @@
         <v>2.3358972260000002</v>
       </c>
     </row>
-    <row r="781" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A781">
         <v>2013</v>
       </c>
@@ -16129,7 +16131,7 @@
         <v>14.04548063</v>
       </c>
     </row>
-    <row r="782" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A782">
         <v>2013</v>
       </c>
@@ -16149,7 +16151,7 @@
         <v>69.964377909999996</v>
       </c>
     </row>
-    <row r="783" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A783">
         <v>2013</v>
       </c>
@@ -16169,7 +16171,7 @@
         <v>29.912054470000001</v>
       </c>
     </row>
-    <row r="784" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A784">
         <v>2013</v>
       </c>
@@ -16189,7 +16191,7 @@
         <v>18.414375140000001</v>
       </c>
     </row>
-    <row r="785" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A785">
         <v>2013</v>
       </c>
@@ -16209,7 +16211,7 @@
         <v>68.476986499999995</v>
       </c>
     </row>
-    <row r="786" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A786">
         <v>2014</v>
       </c>
@@ -16229,7 +16231,7 @@
         <v>23.49610848</v>
       </c>
     </row>
-    <row r="787" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A787">
         <v>2014</v>
       </c>
@@ -16249,7 +16251,7 @@
         <v>16.925470709999999</v>
       </c>
     </row>
-    <row r="788" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A788">
         <v>2014</v>
       </c>
@@ -16269,7 +16271,7 @@
         <v>26.119775279999999</v>
       </c>
     </row>
-    <row r="789" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A789">
         <v>2014</v>
       </c>
@@ -16289,7 +16291,7 @@
         <v>21.240197429999998</v>
       </c>
     </row>
-    <row r="790" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A790">
         <v>2014</v>
       </c>
@@ -16309,7 +16311,7 @@
         <v>120.67718309999999</v>
       </c>
     </row>
-    <row r="791" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A791">
         <v>2014</v>
       </c>
@@ -16329,7 +16331,7 @@
         <v>74.977067969999993</v>
       </c>
     </row>
-    <row r="792" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A792">
         <v>2014</v>
       </c>
@@ -16349,7 +16351,7 @@
         <v>2.3212793920000001</v>
       </c>
     </row>
-    <row r="793" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A793">
         <v>2014</v>
       </c>
@@ -16369,7 +16371,7 @@
         <v>14.03957404</v>
       </c>
     </row>
-    <row r="794" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A794">
         <v>2014</v>
       </c>
@@ -16389,7 +16391,7 @@
         <v>70.028387929999994</v>
       </c>
     </row>
-    <row r="795" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A795">
         <v>2014</v>
       </c>
@@ -16409,7 +16411,7 @@
         <v>29.913008869999999</v>
       </c>
     </row>
-    <row r="796" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A796">
         <v>2014</v>
       </c>
@@ -16429,7 +16431,7 @@
         <v>18.352186029999999</v>
       </c>
     </row>
-    <row r="797" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A797">
         <v>2014</v>
       </c>
@@ -16449,7 +16451,7 @@
         <v>68.372309490000006</v>
       </c>
     </row>
-    <row r="798" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A798">
         <v>2015</v>
       </c>
@@ -16469,7 +16471,7 @@
         <v>23.551677059999999</v>
       </c>
     </row>
-    <row r="799" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A799">
         <v>2015</v>
       </c>
@@ -16489,7 +16491,7 @@
         <v>16.92439113</v>
       </c>
     </row>
-    <row r="800" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A800">
         <v>2015</v>
       </c>
@@ -16509,7 +16511,7 @@
         <v>26.123842119999999</v>
       </c>
     </row>
-    <row r="801" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A801">
         <v>2015</v>
       </c>
@@ -16529,7 +16531,7 @@
         <v>21.513475400000001</v>
       </c>
     </row>
-    <row r="802" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A802">
         <v>2015</v>
       </c>
@@ -16549,7 +16551,7 @@
         <v>120.4093432</v>
       </c>
     </row>
-    <row r="803" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A803">
         <v>2015</v>
       </c>
@@ -16569,7 +16571,7 @@
         <v>75.190978020000003</v>
       </c>
     </row>
-    <row r="804" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A804">
         <v>2015</v>
       </c>
@@ -16589,7 +16591,7 @@
         <v>2.3100260210000001</v>
       </c>
     </row>
-    <row r="805" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A805">
         <v>2015</v>
       </c>
@@ -16609,7 +16611,7 @@
         <v>14.0537761</v>
       </c>
     </row>
-    <row r="806" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A806">
         <v>2015</v>
       </c>
@@ -16629,7 +16631,7 @@
         <v>70.065713680000002</v>
       </c>
     </row>
-    <row r="807" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A807">
         <v>2015</v>
       </c>
@@ -16649,7 +16651,7 @@
         <v>29.954273910000001</v>
       </c>
     </row>
-    <row r="808" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A808">
         <v>2015</v>
       </c>
@@ -16669,7 +16671,7 @@
         <v>18.28324121</v>
       </c>
     </row>
-    <row r="809" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A809">
         <v>2015</v>
       </c>
@@ -16689,7 +16691,7 @@
         <v>68.308615720000006</v>
       </c>
     </row>
-    <row r="810" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A810">
         <v>2016</v>
       </c>
@@ -16709,7 +16711,7 @@
         <v>23.533767810000001</v>
       </c>
     </row>
-    <row r="811" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A811">
         <v>2016</v>
       </c>
@@ -16729,7 +16731,7 @@
         <v>16.908859870000001</v>
       </c>
     </row>
-    <row r="812" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A812">
         <v>2016</v>
       </c>
@@ -16749,7 +16751,7 @@
         <v>26.150666820000001</v>
       </c>
     </row>
-    <row r="813" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A813">
         <v>2016</v>
       </c>
@@ -16769,7 +16771,7 @@
         <v>21.8557837</v>
       </c>
     </row>
-    <row r="814" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A814">
         <v>2016</v>
       </c>
@@ -16789,7 +16791,7 @@
         <v>120.2377726</v>
       </c>
     </row>
-    <row r="815" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A815">
         <v>2016</v>
       </c>
@@ -16809,7 +16811,7 @@
         <v>75.150575129999893</v>
       </c>
     </row>
-    <row r="816" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A816">
         <v>2016</v>
       </c>
@@ -16829,7 +16831,7 @@
         <v>2.2970994400000002</v>
       </c>
     </row>
-    <row r="817" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A817">
         <v>2016</v>
       </c>
@@ -16849,7 +16851,7 @@
         <v>14.05968663</v>
       </c>
     </row>
-    <row r="818" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A818">
         <v>2016</v>
       </c>
@@ -16869,7 +16871,7 @@
         <v>70.044082470000006</v>
       </c>
     </row>
-    <row r="819" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A819">
         <v>2016</v>
       </c>
@@ -16889,7 +16891,7 @@
         <v>29.936783049999999</v>
       </c>
     </row>
-    <row r="820" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A820">
         <v>2016</v>
       </c>
@@ -16909,7 +16911,7 @@
         <v>18.207864069999999</v>
       </c>
     </row>
-    <row r="821" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A821">
         <v>2016</v>
       </c>
@@ -16929,7 +16931,7 @@
         <v>68.223788089999999</v>
       </c>
     </row>
-    <row r="822" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A822">
         <v>2017</v>
       </c>
@@ -16949,7 +16951,7 @@
         <v>23.462014320000002</v>
       </c>
     </row>
-    <row r="823" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A823">
         <v>2017</v>
       </c>
@@ -16969,7 +16971,7 @@
         <v>16.944383930000001</v>
       </c>
     </row>
-    <row r="824" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A824">
         <v>2017</v>
       </c>
@@ -16989,7 +16991,7 @@
         <v>26.27573997</v>
       </c>
     </row>
-    <row r="825" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A825">
         <v>2017</v>
       </c>
@@ -17009,7 +17011,7 @@
         <v>21.91905826</v>
       </c>
     </row>
-    <row r="826" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A826">
         <v>2017</v>
       </c>
@@ -17029,7 +17031,7 @@
         <v>119.8725415</v>
       </c>
     </row>
-    <row r="827" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A827">
         <v>2017</v>
       </c>
@@ -17049,7 +17051,7 @@
         <v>75.077511380000004</v>
       </c>
     </row>
-    <row r="828" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A828">
         <v>2017</v>
       </c>
@@ -17069,7 +17071,7 @@
         <v>2.2821647989999998</v>
       </c>
     </row>
-    <row r="829" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A829">
         <v>2017</v>
       </c>
@@ -17089,7 +17091,7 @@
         <v>14.093959509999999</v>
       </c>
     </row>
-    <row r="830" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A830">
         <v>2017</v>
       </c>
@@ -17109,7 +17111,7 @@
         <v>70.233078559999996</v>
       </c>
     </row>
-    <row r="831" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A831">
         <v>2017</v>
       </c>
@@ -17129,7 +17131,7 @@
         <v>29.937531280000002</v>
       </c>
     </row>
-    <row r="832" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A832">
         <v>2017</v>
       </c>
@@ -17149,7 +17151,7 @@
         <v>18.140637569999999</v>
       </c>
     </row>
-    <row r="833" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A833">
         <v>2017</v>
       </c>
@@ -17169,7 +17171,7 @@
         <v>68.243643989999995</v>
       </c>
     </row>
-    <row r="834" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A834">
         <v>2018</v>
       </c>
@@ -17189,7 +17191,7 @@
         <v>23.49020148</v>
       </c>
     </row>
-    <row r="835" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A835">
         <v>2018</v>
       </c>
@@ -17209,7 +17211,7 @@
         <v>16.9634122</v>
       </c>
     </row>
-    <row r="836" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A836">
         <v>2018</v>
       </c>
@@ -17229,7 +17231,7 @@
         <v>26.33339844</v>
       </c>
     </row>
-    <row r="837" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A837">
         <v>2018</v>
       </c>
@@ -17249,7 +17251,7 @@
         <v>22.174819400000001</v>
       </c>
     </row>
-    <row r="838" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A838">
         <v>2018</v>
       </c>
@@ -17269,7 +17271,7 @@
         <v>119.7971737</v>
       </c>
     </row>
-    <row r="839" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A839">
         <v>2018</v>
       </c>
@@ -17289,7 +17291,7 @@
         <v>75.242599459999994</v>
       </c>
     </row>
-    <row r="840" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A840">
         <v>2018</v>
       </c>
@@ -17309,7 +17311,7 @@
         <v>2.2670869480000002</v>
       </c>
     </row>
-    <row r="841" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A841">
         <v>2018</v>
       </c>
@@ -17329,7 +17331,7 @@
         <v>14.251104529999999</v>
       </c>
     </row>
-    <row r="842" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A842">
         <v>2018</v>
       </c>
@@ -17349,7 +17351,7 @@
         <v>70.375561469999994</v>
       </c>
     </row>
-    <row r="843" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A843">
         <v>2018</v>
       </c>
@@ -17369,7 +17371,7 @@
         <v>29.94955173</v>
       </c>
     </row>
-    <row r="844" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A844">
         <v>2018</v>
       </c>
@@ -17389,7 +17391,7 @@
         <v>18.111049690000002</v>
       </c>
     </row>
-    <row r="845" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A845">
         <v>2018</v>
       </c>
@@ -17409,7 +17411,7 @@
         <v>68.373206210000006</v>
       </c>
     </row>
-    <row r="846" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A846">
         <v>2019</v>
       </c>
@@ -17429,7 +17431,7 @@
         <v>23.549267619999998</v>
       </c>
     </row>
-    <row r="847" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A847">
         <v>2019</v>
       </c>
@@ -17449,7 +17451,7 @@
         <v>16.994154859999998</v>
       </c>
     </row>
-    <row r="848" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A848">
         <v>2019</v>
       </c>
@@ -17469,7 +17471,7 @@
         <v>26.424838300000001</v>
       </c>
     </row>
-    <row r="849" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A849">
         <v>2019</v>
       </c>
@@ -17489,7 +17491,7 @@
         <v>22.363637969999999</v>
       </c>
     </row>
-    <row r="850" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A850">
         <v>2019</v>
       </c>
@@ -17509,7 +17511,7 @@
         <v>120.6900878</v>
       </c>
     </row>
-    <row r="851" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A851">
         <v>2019</v>
       </c>
@@ -17529,7 +17531,7 @@
         <v>75.218484480000001</v>
       </c>
     </row>
-    <row r="852" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A852">
         <v>2019</v>
       </c>
@@ -17549,7 +17551,7 @@
         <v>2.2673136569999999</v>
       </c>
     </row>
-    <row r="853" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A853">
         <v>2019</v>
       </c>
@@ -17569,7 +17571,7 @@
         <v>14.35563756</v>
       </c>
     </row>
-    <row r="854" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A854">
         <v>2019</v>
       </c>
@@ -17589,7 +17591,7 @@
         <v>70.565606500000001</v>
       </c>
     </row>
-    <row r="855" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A855">
         <v>2019</v>
       </c>
@@ -17609,7 +17611,7 @@
         <v>29.96232586</v>
       </c>
     </row>
-    <row r="856" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A856">
         <v>2019</v>
       </c>
@@ -17629,7 +17631,7 @@
         <v>18.186334810000002</v>
       </c>
     </row>
-    <row r="857" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A857">
         <v>2019</v>
       </c>
@@ -17649,7 +17651,7 @@
         <v>68.274232010000006</v>
       </c>
     </row>
-    <row r="858" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A858">
         <v>2020</v>
       </c>
@@ -17669,7 +17671,7 @@
         <v>23.58040312</v>
       </c>
     </row>
-    <row r="859" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A859">
         <v>2020</v>
       </c>
@@ -17689,7 +17691,7 @@
         <v>17.042224950000001</v>
       </c>
     </row>
-    <row r="860" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A860">
         <v>2020</v>
       </c>
@@ -17709,7 +17711,7 @@
         <v>26.558325480000001</v>
       </c>
     </row>
-    <row r="861" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A861">
         <v>2020</v>
       </c>
@@ -17729,7 +17731,7 @@
         <v>23.719973840000002</v>
       </c>
     </row>
-    <row r="862" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A862">
         <v>2020</v>
       </c>
@@ -17749,7 +17751,7 @@
         <v>121.42753039999999</v>
       </c>
     </row>
-    <row r="863" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A863">
         <v>2020</v>
       </c>
@@ -17769,7 +17771,7 @@
         <v>75.024798790000006</v>
       </c>
     </row>
-    <row r="864" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A864">
         <v>2020</v>
       </c>
@@ -17789,7 +17791,7 @@
         <v>2.1541633689999999</v>
       </c>
     </row>
-    <row r="865" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A865">
         <v>2020</v>
       </c>
@@ -17809,7 +17811,7 @@
         <v>14.40770509</v>
       </c>
     </row>
-    <row r="866" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A866">
         <v>2020</v>
       </c>
@@ -17829,7 +17831,7 @@
         <v>70.806703769999999</v>
       </c>
     </row>
-    <row r="867" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A867">
         <v>2020</v>
       </c>
@@ -17849,7 +17851,7 @@
         <v>28.476350159999999</v>
       </c>
     </row>
-    <row r="868" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A868">
         <v>2020</v>
       </c>
@@ -17869,7 +17871,7 @@
         <v>18.2249561</v>
       </c>
     </row>
-    <row r="869" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A869">
         <v>2020</v>
       </c>
@@ -17889,7 +17891,7 @@
         <v>68.295812949999998</v>
       </c>
     </row>
-    <row r="870" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A870">
         <v>2021</v>
       </c>
@@ -17909,7 +17911,7 @@
         <v>23.60700306</v>
       </c>
     </row>
-    <row r="871" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A871">
         <v>2021</v>
       </c>
@@ -17929,7 +17931,7 @@
         <v>16.925455289999999</v>
       </c>
     </row>
-    <row r="872" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A872">
         <v>2021</v>
       </c>
@@ -17949,7 +17951,7 @@
         <v>26.536452789999998</v>
       </c>
     </row>
-    <row r="873" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A873">
         <v>2021</v>
       </c>
@@ -17969,7 +17971,7 @@
         <v>23.83312647</v>
       </c>
     </row>
-    <row r="874" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A874">
         <v>2021</v>
       </c>
@@ -17989,7 +17991,7 @@
         <v>121.2974744</v>
       </c>
     </row>
-    <row r="875" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A875">
         <v>2021</v>
       </c>
@@ -18009,7 +18011,7 @@
         <v>74.571383909999994</v>
       </c>
     </row>
-    <row r="876" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A876">
         <v>2021</v>
       </c>
@@ -18029,7 +18031,7 @@
         <v>2.154378785</v>
       </c>
     </row>
-    <row r="877" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A877">
         <v>2021</v>
       </c>
@@ -18049,7 +18051,7 @@
         <v>14.38341065</v>
       </c>
     </row>
-    <row r="878" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A878">
         <v>2021</v>
       </c>
@@ -18069,7 +18071,7 @@
         <v>70.331050149999996</v>
       </c>
     </row>
-    <row r="879" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A879">
         <v>2021</v>
       </c>
@@ -18089,7 +18091,7 @@
         <v>28.48849594</v>
       </c>
     </row>
-    <row r="880" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A880">
         <v>2021</v>
       </c>
@@ -18109,7 +18111,7 @@
         <v>18.219490780000001</v>
       </c>
     </row>
-    <row r="881" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A881">
         <v>2021</v>
       </c>
@@ -18129,7 +18131,7 @@
         <v>67.805823649999994</v>
       </c>
     </row>
-    <row r="882" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A882">
         <v>2022</v>
       </c>
@@ -18149,7 +18151,7 @@
         <v>23.635706129999999</v>
       </c>
     </row>
-    <row r="883" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A883">
         <v>2022</v>
       </c>
@@ -18169,7 +18171,7 @@
         <v>16.832074370000001</v>
       </c>
     </row>
-    <row r="884" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A884">
         <v>2022</v>
       </c>
@@ -18189,7 +18191,7 @@
         <v>26.375166440000001</v>
       </c>
     </row>
-    <row r="885" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A885">
         <v>2022</v>
       </c>
@@ -18209,7 +18211,7 @@
         <v>22.220472139999998</v>
       </c>
     </row>
-    <row r="886" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A886">
         <v>2022</v>
       </c>
@@ -18229,7 +18231,7 @@
         <v>121.1103219</v>
       </c>
     </row>
-    <row r="887" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A887">
         <v>2022</v>
       </c>
@@ -18249,7 +18251,7 @@
         <v>74.41125993</v>
       </c>
     </row>
-    <row r="888" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A888">
         <v>2022</v>
       </c>
@@ -18269,7 +18271,7 @@
         <v>2.1545942230000001</v>
       </c>
     </row>
-    <row r="889" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A889">
         <v>2022</v>
       </c>
@@ -18289,7 +18291,7 @@
         <v>14.428348570000001</v>
       </c>
     </row>
-    <row r="890" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A890">
         <v>2022</v>
       </c>
@@ -18309,7 +18311,7 @@
         <v>69.951238230000001</v>
       </c>
     </row>
-    <row r="891" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A891">
         <v>2022</v>
       </c>
@@ -18329,7 +18331,7 @@
         <v>28.500646889999999</v>
       </c>
     </row>
-    <row r="892" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A892">
         <v>2022</v>
       </c>
@@ -18349,7 +18351,7 @@
         <v>18.23942912</v>
       </c>
     </row>
-    <row r="893" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A893">
         <v>2022</v>
       </c>
@@ -18369,7 +18371,7 @@
         <v>67.185038809999995</v>
       </c>
     </row>
-    <row r="894" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A894">
         <v>2023</v>
       </c>
@@ -18389,7 +18391,7 @@
         <v>23.64529911</v>
       </c>
     </row>
-    <row r="895" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A895">
         <v>2023</v>
       </c>
@@ -18409,7 +18411,7 @@
         <v>16.802534290000001</v>
       </c>
     </row>
-    <row r="896" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A896">
         <v>2023</v>
       </c>
@@ -18429,7 +18431,7 @@
         <v>26.246740630000001</v>
       </c>
     </row>
-    <row r="897" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A897">
         <v>2023</v>
       </c>
@@ -18449,7 +18451,7 @@
         <v>22.09210324</v>
       </c>
     </row>
-    <row r="898" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A898">
         <v>2023</v>
       </c>
@@ -18469,7 +18471,7 @@
         <v>120.9962829</v>
       </c>
     </row>
-    <row r="899" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A899">
         <v>2023</v>
       </c>
@@ -18489,7 +18491,7 @@
         <v>74.575406810000004</v>
       </c>
     </row>
-    <row r="900" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A900">
         <v>2023</v>
       </c>
@@ -18509,7 +18511,7 @@
         <v>2.1548096819999998</v>
       </c>
     </row>
-    <row r="901" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A901">
         <v>2023</v>
       </c>
@@ -18529,7 +18531,7 @@
         <v>14.52942152</v>
       </c>
     </row>
-    <row r="902" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A902">
         <v>2023</v>
       </c>
@@ -18549,7 +18551,7 @@
         <v>69.842371650000004</v>
       </c>
     </row>
-    <row r="903" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A903">
         <v>2023</v>
       </c>
@@ -18569,7 +18571,7 @@
         <v>28.512803030000001</v>
       </c>
     </row>
-    <row r="904" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A904">
         <v>2023</v>
       </c>
@@ -18589,7 +18591,7 @@
         <v>18.290833899999999</v>
       </c>
     </row>
-    <row r="905" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A905">
         <v>2023</v>
       </c>
@@ -18609,7 +18611,7 @@
         <v>66.817406939999998</v>
       </c>
     </row>
-    <row r="906" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A906">
         <v>2024</v>
       </c>
@@ -18629,7 +18631,7 @@
         <v>23.653778020000001</v>
       </c>
     </row>
-    <row r="907" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A907">
         <v>2024</v>
       </c>
@@ -18649,7 +18651,7 @@
         <v>16.88657113</v>
       </c>
     </row>
-    <row r="908" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A908">
         <v>2024</v>
       </c>
@@ -18669,7 +18671,7 @@
         <v>26.329620439999999</v>
       </c>
     </row>
-    <row r="909" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A909">
         <v>2024</v>
       </c>
@@ -18689,7 +18691,7 @@
         <v>22.341015519999999</v>
       </c>
     </row>
-    <row r="910" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A910">
         <v>2024</v>
       </c>
@@ -18709,7 +18711,7 @@
         <v>121.1865203</v>
       </c>
     </row>
-    <row r="911" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A911">
         <v>2024</v>
       </c>
@@ -18729,7 +18731,7 @@
         <v>74.495695029999993</v>
       </c>
     </row>
-    <row r="912" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A912">
         <v>2024</v>
       </c>
@@ -18749,7 +18751,7 @@
         <v>2.1550251629999999</v>
       </c>
     </row>
-    <row r="913" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A913">
         <v>2024</v>
       </c>
@@ -18769,7 +18771,7 @@
         <v>14.725631119999999</v>
       </c>
     </row>
-    <row r="914" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A914">
         <v>2024</v>
       </c>
@@ -18789,7 +18791,7 @@
         <v>70.272752240000003</v>
       </c>
     </row>
-    <row r="915" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A915">
         <v>2024</v>
       </c>
@@ -18809,7 +18811,7 @@
         <v>28.524964359999998</v>
       </c>
     </row>
-    <row r="916" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A916">
         <v>2024</v>
       </c>
@@ -18829,7 +18831,7 @@
         <v>18.36847895</v>
       </c>
     </row>
-    <row r="917" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A917">
         <v>2024</v>
       </c>
@@ -18849,7 +18851,7 @@
         <v>66.580099970000006</v>
       </c>
     </row>
-    <row r="918" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A918">
         <v>2025</v>
       </c>
@@ -18869,7 +18871,7 @@
         <v>23.671952709999999</v>
       </c>
     </row>
-    <row r="919" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A919">
         <v>2025</v>
       </c>
@@ -18889,7 +18891,7 @@
         <v>16.909576470000001</v>
       </c>
     </row>
-    <row r="920" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A920">
         <v>2025</v>
       </c>
@@ -18909,7 +18911,7 @@
         <v>26.437210969999999</v>
       </c>
     </row>
-    <row r="921" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A921">
         <v>2025</v>
       </c>
@@ -18929,7 +18931,7 @@
         <v>22.44602686</v>
       </c>
     </row>
-    <row r="922" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A922">
         <v>2025</v>
       </c>
@@ -18949,7 +18951,7 @@
         <v>121.6239156</v>
       </c>
     </row>
-    <row r="923" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A923">
         <v>2025</v>
       </c>
@@ -18969,7 +18971,7 @@
         <v>74.239349360000006</v>
       </c>
     </row>
-    <row r="924" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A924">
         <v>2025</v>
       </c>
@@ -18989,7 +18991,7 @@
         <v>2.1552406660000001</v>
       </c>
     </row>
-    <row r="925" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A925">
         <v>2025</v>
       </c>
@@ -19009,7 +19011,7 @@
         <v>14.834013779999999</v>
       </c>
     </row>
-    <row r="926" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A926">
         <v>2025</v>
       </c>
@@ -19029,7 +19031,7 @@
         <v>70.456656249999995</v>
       </c>
     </row>
-    <row r="927" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A927">
         <v>2025</v>
       </c>
@@ -19049,7 +19051,7 @@
         <v>28.537130869999999</v>
       </c>
     </row>
-    <row r="928" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A928">
         <v>2025</v>
       </c>
@@ -19069,7 +19071,7 @@
         <v>18.438065330000001</v>
       </c>
     </row>
-    <row r="929" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A929">
         <v>2025</v>
       </c>
@@ -19089,7 +19091,7 @@
         <v>66.36015501</v>
       </c>
     </row>
-    <row r="930" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A930">
         <v>2026</v>
       </c>
@@ -19109,7 +19111,7 @@
         <v>23.690296450000002</v>
       </c>
     </row>
-    <row r="931" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A931">
         <v>2026</v>
       </c>
@@ -19129,7 +19131,7 @@
         <v>16.90153235</v>
       </c>
     </row>
-    <row r="932" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A932">
         <v>2026</v>
       </c>
@@ -19149,7 +19151,7 @@
         <v>26.500967939999999</v>
       </c>
     </row>
-    <row r="933" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A933">
         <v>2026</v>
       </c>
@@ -19169,7 +19171,7 @@
         <v>22.432445340000001</v>
       </c>
     </row>
-    <row r="934" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A934">
         <v>2026</v>
       </c>
@@ -19189,7 +19191,7 @@
         <v>121.929896</v>
       </c>
     </row>
-    <row r="935" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A935">
         <v>2026</v>
       </c>
@@ -19209,7 +19211,7 @@
         <v>74.048754869999996</v>
       </c>
     </row>
-    <row r="936" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A936">
         <v>2026</v>
       </c>
@@ -19229,7 +19231,7 @@
         <v>2.1554561900000002</v>
       </c>
     </row>
-    <row r="937" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A937">
         <v>2026</v>
       </c>
@@ -19249,7 +19251,7 @@
         <v>14.89738157</v>
       </c>
     </row>
-    <row r="938" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A938">
         <v>2026</v>
       </c>
@@ -19269,7 +19271,7 @@
         <v>70.495872250000005</v>
       </c>
     </row>
-    <row r="939" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A939">
         <v>2026</v>
       </c>
@@ -19289,7 +19291,7 @@
         <v>28.549302569999998</v>
       </c>
     </row>
-    <row r="940" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A940">
         <v>2026</v>
       </c>
@@ -19309,7 +19311,7 @@
         <v>18.490565629999999</v>
       </c>
     </row>
-    <row r="941" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A941">
         <v>2026</v>
       </c>
@@ -19329,7 +19331,7 @@
         <v>66.048800299999996</v>
       </c>
     </row>
-    <row r="942" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A942">
         <v>2027</v>
       </c>
@@ -19349,7 +19351,7 @@
         <v>23.714836099999999</v>
       </c>
     </row>
-    <row r="943" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A943">
         <v>2027</v>
       </c>
@@ -19369,7 +19371,7 @@
         <v>16.88331711</v>
       </c>
     </row>
-    <row r="944" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A944">
         <v>2027</v>
       </c>
@@ -19389,7 +19391,7 @@
         <v>26.492557940000001</v>
       </c>
     </row>
-    <row r="945" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A945">
         <v>2027</v>
       </c>
@@ -19409,7 +19411,7 @@
         <v>22.422785560000001</v>
       </c>
     </row>
-    <row r="946" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A946">
         <v>2027</v>
       </c>
@@ -19429,7 +19431,7 @@
         <v>122.1197864</v>
       </c>
     </row>
-    <row r="947" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A947">
         <v>2027</v>
       </c>
@@ -19449,7 +19451,7 @@
         <v>73.904741869999995</v>
       </c>
     </row>
-    <row r="948" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A948">
         <v>2027</v>
       </c>
@@ -19469,7 +19471,7 @@
         <v>2.1556717359999999</v>
       </c>
     </row>
-    <row r="949" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A949">
         <v>2027</v>
       </c>
@@ -19489,7 +19491,7 @@
         <v>14.92578263</v>
       </c>
     </row>
-    <row r="950" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A950">
         <v>2027</v>
       </c>
@@ -19509,7 +19511,7 @@
         <v>70.471873729999999</v>
       </c>
     </row>
-    <row r="951" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A951">
         <v>2027</v>
       </c>
@@ -19529,7 +19531,7 @@
         <v>28.561479460000001</v>
       </c>
     </row>
-    <row r="952" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A952">
         <v>2027</v>
       </c>
@@ -19549,7 +19551,7 @@
         <v>18.533380820000001</v>
       </c>
     </row>
-    <row r="953" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A953">
         <v>2027</v>
       </c>
@@ -19569,7 +19571,7 @@
         <v>65.721436100000005</v>
       </c>
     </row>
-    <row r="954" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A954">
         <v>2028</v>
       </c>
@@ -19589,7 +19591,7 @@
         <v>23.747479590000001</v>
       </c>
     </row>
-    <row r="955" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A955">
         <v>2028</v>
       </c>
@@ -19609,7 +19611,7 @@
         <v>16.85282986</v>
       </c>
     </row>
-    <row r="956" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A956">
         <v>2028</v>
       </c>
@@ -19629,7 +19631,7 @@
         <v>26.521076239999999</v>
       </c>
     </row>
-    <row r="957" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A957">
         <v>2028</v>
       </c>
@@ -19649,7 +19651,7 @@
         <v>22.44772991</v>
       </c>
     </row>
-    <row r="958" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A958">
         <v>2028</v>
       </c>
@@ -19669,7 +19671,7 @@
         <v>122.2166153</v>
       </c>
     </row>
-    <row r="959" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A959">
         <v>2028</v>
       </c>
@@ -19689,7 +19691,7 @@
         <v>73.754996590000005</v>
       </c>
     </row>
-    <row r="960" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A960">
         <v>2028</v>
       </c>
@@ -19709,7 +19711,7 @@
         <v>2.1558873030000001</v>
       </c>
     </row>
-    <row r="961" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A961">
         <v>2028</v>
       </c>
@@ -19729,7 +19731,7 @@
         <v>14.9428664</v>
       </c>
     </row>
-    <row r="962" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A962">
         <v>2028</v>
       </c>
@@ -19749,7 +19751,7 @@
         <v>70.38822888</v>
       </c>
     </row>
-    <row r="963" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A963">
         <v>2028</v>
       </c>
@@ -19769,7 +19771,7 @@
         <v>28.57366154</v>
       </c>
     </row>
-    <row r="964" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A964">
         <v>2028</v>
       </c>
@@ -19789,7 +19791,7 @@
         <v>18.571829260000001</v>
       </c>
     </row>
-    <row r="965" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A965">
         <v>2028</v>
       </c>
@@ -19809,7 +19811,7 @@
         <v>65.400361380000007</v>
       </c>
     </row>
-    <row r="966" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A966">
         <v>2029</v>
       </c>
@@ -19829,7 +19831,7 @@
         <v>23.796798339999999</v>
       </c>
     </row>
-    <row r="967" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A967">
         <v>2029</v>
       </c>
@@ -19849,7 +19851,7 @@
         <v>16.80406425</v>
       </c>
     </row>
-    <row r="968" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A968">
         <v>2029</v>
       </c>
@@ -19869,7 +19871,7 @@
         <v>26.528409539999998</v>
       </c>
     </row>
-    <row r="969" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A969">
         <v>2029</v>
       </c>
@@ -19889,7 +19891,7 @@
         <v>22.461098870000001</v>
       </c>
     </row>
-    <row r="970" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A970">
         <v>2029</v>
       </c>
@@ -19909,7 +19911,7 @@
         <v>122.2772598</v>
       </c>
     </row>
-    <row r="971" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A971">
         <v>2029</v>
       </c>
@@ -19929,7 +19931,7 @@
         <v>73.547151869999993</v>
       </c>
     </row>
-    <row r="972" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A972">
         <v>2029</v>
       </c>
@@ -19949,7 +19951,7 @@
         <v>2.1561028910000002</v>
       </c>
     </row>
-    <row r="973" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A973">
         <v>2029</v>
       </c>
@@ -19969,7 +19971,7 @@
         <v>14.95217789</v>
       </c>
     </row>
-    <row r="974" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A974">
         <v>2029</v>
       </c>
@@ -19989,7 +19991,7 @@
         <v>70.218562239999997</v>
       </c>
     </row>
-    <row r="975" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A975">
         <v>2029</v>
       </c>
@@ -20009,7 +20011,7 @@
         <v>28.585848819999999</v>
       </c>
     </row>
-    <row r="976" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A976">
         <v>2029</v>
       </c>
@@ -20029,7 +20031,7 @@
         <v>18.60806174</v>
       </c>
     </row>
-    <row r="977" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A977">
         <v>2029</v>
       </c>
@@ -20049,7 +20051,7 @@
         <v>65.062712340000004</v>
       </c>
     </row>
-    <row r="978" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A978">
         <v>2030</v>
       </c>
@@ -20069,7 +20071,7 @@
         <v>23.822754790000001</v>
       </c>
     </row>
-    <row r="979" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A979">
         <v>2030</v>
       </c>
@@ -20089,7 +20091,7 @@
         <v>16.74964108</v>
       </c>
     </row>
-    <row r="980" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A980">
         <v>2030</v>
       </c>
@@ -20109,7 +20111,7 @@
         <v>26.52586642</v>
       </c>
     </row>
-    <row r="981" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A981">
         <v>2030</v>
       </c>
@@ -20129,7 +20131,7 @@
         <v>22.451125879999999</v>
       </c>
     </row>
-    <row r="982" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A982">
         <v>2030</v>
       </c>
@@ -20149,7 +20151,7 @@
         <v>122.3109781</v>
       </c>
     </row>
-    <row r="983" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A983">
         <v>2030</v>
       </c>
@@ -20169,7 +20171,7 @@
         <v>73.291875599999997</v>
       </c>
     </row>
-    <row r="984" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A984">
         <v>2030</v>
       </c>
@@ -20189,7 +20191,7 @@
         <v>2.156318502</v>
       </c>
     </row>
-    <row r="985" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A985">
         <v>2030</v>
       </c>
@@ -20209,7 +20211,7 @@
         <v>14.95845372</v>
       </c>
     </row>
-    <row r="986" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A986">
         <v>2030</v>
       </c>
@@ -20229,7 +20231,7 @@
         <v>70.018858539999997</v>
       </c>
     </row>
-    <row r="987" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A987">
         <v>2030</v>
       </c>
@@ -20249,7 +20251,7 @@
         <v>28.598041299999998</v>
       </c>
     </row>
-    <row r="988" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A988">
         <v>2030</v>
       </c>
@@ -20269,7 +20271,7 @@
         <v>18.643418530000002</v>
       </c>
     </row>
-    <row r="989" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A989">
         <v>2030</v>
       </c>
@@ -20295,15 +20297,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E35038410C6DC543B8D3FBA4ACC89650" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c0d6100aeba9e53384c18032cbcb0319">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="35712952-2fc6-4f4f-a924-f4d6513303be" xmlns:ns4="5bfaec93-3092-4921-8232-75eb7714f09e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="08dcebd2bb7a74325ad53a612760a668" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -20517,6 +20510,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -20527,24 +20529,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33D31BDE-F857-4897-8424-41302BCC87FB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="5bfaec93-3092-4921-8232-75eb7714f09e"/>
-    <ds:schemaRef ds:uri="35712952-2fc6-4f4f-a924-f4d6513303be"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D92C081C-7198-4649-A870-B6396944E65F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20564,6 +20548,24 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33D31BDE-F857-4897-8424-41302BCC87FB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="5bfaec93-3092-4921-8232-75eb7714f09e"/>
+    <ds:schemaRef ds:uri="35712952-2fc6-4f4f-a924-f4d6513303be"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB7B7BCF-20E7-4E7C-B80F-5AF3BB7FEA50}">
   <ds:schemaRefs>
